--- a/excel/lap=10_d=3.xlsx
+++ b/excel/lap=10_d=3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jay0423/Documents/大学関連/M2/ansys/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3F754ED-C064-9A49-9775-C121B58EAAB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A47A2ED-43F8-3B4E-98CC-7B033D8C3B0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="500" windowWidth="28300" windowHeight="16940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12560" windowHeight="18000" firstSheet="5" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -243,6 +243,7 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP"/>
               <a:t>10%</a:t>
             </a:r>
           </a:p>
@@ -945,6 +946,7 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
+                  <a:rPr lang="en"/>
                   <a:t>Strain [-]</a:t>
                 </a:r>
               </a:p>
@@ -978,6 +980,7 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
+                  <a:rPr lang="en"/>
                   <a:t>Stress [MPa]</a:t>
                 </a:r>
               </a:p>
@@ -1149,6 +1152,7 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
+                  <a:rPr lang="en"/>
                   <a:t>Strain [-]</a:t>
                 </a:r>
               </a:p>
@@ -1182,6 +1186,7 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
+                  <a:rPr lang="en"/>
                   <a:t>Stress [MPa]</a:t>
                 </a:r>
               </a:p>
@@ -3353,6 +3358,7 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
+                  <a:rPr lang="en"/>
                   <a:t>Strain [-]</a:t>
                 </a:r>
               </a:p>
@@ -3386,6 +3392,7 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
+                  <a:rPr lang="en"/>
                   <a:t>Stress [MPa]</a:t>
                 </a:r>
               </a:p>
@@ -3442,6 +3449,7 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP"/>
               <a:t>10%</a:t>
             </a:r>
           </a:p>
@@ -4144,6 +4152,7 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
+                  <a:rPr lang="en"/>
                   <a:t>Strain [-]</a:t>
                 </a:r>
               </a:p>
@@ -4177,6 +4186,7 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
+                  <a:rPr lang="en"/>
                   <a:t>Stress [MPa]</a:t>
                 </a:r>
               </a:p>
@@ -4348,6 +4358,7 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
+                  <a:rPr lang="en"/>
                   <a:t>Strain [-]</a:t>
                 </a:r>
               </a:p>
@@ -4381,6 +4392,7 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
+                  <a:rPr lang="en"/>
                   <a:t>Stress [MPa]</a:t>
                 </a:r>
               </a:p>
@@ -5437,6 +5449,7 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP"/>
               <a:t>10%</a:t>
             </a:r>
           </a:p>
@@ -6115,6 +6128,7 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
+                  <a:rPr lang="en"/>
                   <a:t>Strain [-]</a:t>
                 </a:r>
               </a:p>
@@ -6148,6 +6162,7 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
+                  <a:rPr lang="en"/>
                   <a:t>Stress [MPa]</a:t>
                 </a:r>
               </a:p>
@@ -6313,6 +6328,7 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
+                  <a:rPr lang="en"/>
                   <a:t>Strain [-]</a:t>
                 </a:r>
               </a:p>
@@ -6346,6 +6362,7 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
+                  <a:rPr lang="en"/>
                   <a:t>Stress [MPa]</a:t>
                 </a:r>
               </a:p>
@@ -6402,6 +6419,7 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP"/>
               <a:t>10%</a:t>
             </a:r>
           </a:p>
@@ -7104,6 +7122,7 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
+                  <a:rPr lang="en"/>
                   <a:t>Strain [-]</a:t>
                 </a:r>
               </a:p>
@@ -7137,6 +7156,7 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
+                  <a:rPr lang="en"/>
                   <a:t>Stress [MPa]</a:t>
                 </a:r>
               </a:p>
@@ -7937,7 +7957,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
@@ -12560,7 +12580,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:G101"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G107" sqref="G107"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="20"/>
   <sheetData>
@@ -14007,7 +14029,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:G105"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="20"/>
   <sheetData>

--- a/excel/lap=10_d=3.xlsx
+++ b/excel/lap=10_d=3.xlsx
@@ -8,26 +8,27 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jay0423/Documents/大学関連/M2/ansys/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A47A2ED-43F8-3B4E-98CC-7B033D8C3B0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09C10A5F-56AD-9E4A-8976-6E7483475E27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12560" windowHeight="18000" firstSheet="5" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="26700" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="lap=10_gap=0.25" sheetId="2" r:id="rId2"/>
     <sheet name="lap=10_gap=0.5" sheetId="3" r:id="rId3"/>
     <sheet name="lap=10_gap=1" sheetId="4" r:id="rId4"/>
-    <sheet name="lap=10_gap=2" sheetId="5" r:id="rId5"/>
-    <sheet name="lap=10_gap=3" sheetId="6" r:id="rId6"/>
-    <sheet name="lap=10_gap=1.5" sheetId="7" r:id="rId7"/>
-    <sheet name="lap=10_gap=2.5" sheetId="8" r:id="rId8"/>
+    <sheet name="lap=10_gap=1.5" sheetId="5" r:id="rId5"/>
+    <sheet name="lap=10_gap=2" sheetId="6" r:id="rId6"/>
+    <sheet name="lap=10_gap=2.5" sheetId="7" r:id="rId7"/>
+    <sheet name="lap=10_gap=3" sheetId="8" r:id="rId8"/>
+    <sheet name="まとめ" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="29">
   <si>
     <t>file_name</t>
   </si>
@@ -68,6 +69,9 @@
     <t>lap=10_gap=1.5.csv</t>
   </si>
   <si>
+    <t>lap=10, gap=1.5</t>
+  </si>
+  <si>
     <t>lap=10_gap=2.csv</t>
   </si>
   <si>
@@ -75,6 +79,9 @@
   </si>
   <si>
     <t>lap=10_gap=2.5.csv</t>
+  </si>
+  <si>
+    <t>lap=10, gap=2.5</t>
   </si>
   <si>
     <t>lap=10_gap=3.csv</t>
@@ -103,12 +110,18 @@
   <si>
     <t>ヤング率</t>
   </si>
+  <si>
+    <t>tensile_strength</t>
+  </si>
+  <si>
+    <t>young's_modulus</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -131,13 +144,6 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <name val="游ゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -147,27 +153,12 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -191,15 +182,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -243,8 +231,8 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" altLang="ja-JP"/>
-              <a:t>10%</a:t>
+              <a:rPr lang="en"/>
+              <a:t>lap=10_gap=0.25</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -913,7 +901,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-6D49-C949-88EA-9521C402D220}"/>
+              <c16:uniqueId val="{00000000-572F-9040-AE81-0FD1198CC27B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1027,6 +1015,24 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP"/>
+              <a:t>10%</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -1046,10 +1052,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'lap=10_gap=3'!$C$2:$C$10</c:f>
+              <c:f>'lap=10_gap=2'!$C$2:$C$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>2.5000000000000001E-4</c:v>
                 </c:pt>
@@ -1073,45 +1079,39 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2.2499999999999998E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'lap=10_gap=3'!$D$2:$D$10</c:f>
+              <c:f>'lap=10_gap=2'!$D$2:$D$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>1.1495379999999999</c:v>
+                  <c:v>1.2642359999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.29908</c:v>
+                  <c:v>2.5284800000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.44862</c:v>
+                  <c:v>3.7927</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.59816</c:v>
+                  <c:v>5.05694</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.7476799999999999</c:v>
+                  <c:v>6.3211800000000009</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.8961800000000002</c:v>
+                  <c:v>7.5836800000000002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8.0312800000000006</c:v>
+                  <c:v>8.8303399999999996</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9.1389999999999993</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>10.19388</c:v>
+                  <c:v>10.049860000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1119,7 +1119,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-B002-AB4E-838B-13297D879076}"/>
+              <c16:uniqueId val="{00000000-17E0-FF48-B561-2FFE10C3FC4A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1243,8 +1243,7 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" altLang="ja-JP"/>
-              <a:t>10%</a:t>
+              <a:t>lap=10_gap=2.5</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1270,7 +1269,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'lap=10_gap=1.5'!$C$2:$C$105</c:f>
+              <c:f>'lap=10_gap=2.5'!$C$2:$C$105</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="104"/>
@@ -1591,321 +1590,321 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'lap=10_gap=1.5'!$D$2:$D$105</c:f>
+              <c:f>'lap=10_gap=2.5'!$D$2:$D$105</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="104"/>
                 <c:pt idx="0">
-                  <c:v>1.3288180000000001</c:v>
+                  <c:v>1.2035499999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.6576399999999998</c:v>
+                  <c:v>2.4070999999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.9864600000000001</c:v>
+                  <c:v>3.6106400000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.3152799999999996</c:v>
+                  <c:v>4.8141999999999996</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.6440999999999999</c:v>
+                  <c:v>6.0177399999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.9702200000000003</c:v>
+                  <c:v>7.2192600000000002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9.2808399999999995</c:v>
+                  <c:v>8.4048199999999991</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>10.562099999999999</c:v>
+                  <c:v>9.5580400000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>11.799720000000001</c:v>
+                  <c:v>10.67056</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>12.9802</c:v>
+                  <c:v>11.741960000000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>14.11936</c:v>
+                  <c:v>12.772119999999999</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>15.228059999999999</c:v>
+                  <c:v>13.752879999999999</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>16.025880000000001</c:v>
+                  <c:v>14.31784</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>16.147179999999999</c:v>
+                  <c:v>14.585660000000001</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>15.912140000000001</c:v>
+                  <c:v>14.581200000000001</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>15.63612</c:v>
+                  <c:v>14.66268</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>15.19666</c:v>
+                  <c:v>14.88574</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>11.80274</c:v>
+                  <c:v>15.12506</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3.8794200000000001</c:v>
+                  <c:v>15.382379999999999</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3.4138600000000001</c:v>
+                  <c:v>15.62358</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3.3873600000000001</c:v>
+                  <c:v>15.26488</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>3.4859200000000001</c:v>
+                  <c:v>5.5641400000000001</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>3.5722200000000002</c:v>
+                  <c:v>4.7781000000000002</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>3.6617000000000002</c:v>
+                  <c:v>4.8026</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>3.76078</c:v>
+                  <c:v>4.8673799999999998</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>3.85012</c:v>
+                  <c:v>4.9594399999999998</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>3.8924599999999998</c:v>
+                  <c:v>5.0621600000000004</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>3.9171399999999998</c:v>
+                  <c:v>5.1636199999999999</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>3.8560599999999998</c:v>
+                  <c:v>5.2755999999999998</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>3.7782800000000001</c:v>
+                  <c:v>5.3806600000000007</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>3.7093799999999999</c:v>
+                  <c:v>5.4845799999999993</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>3.5992199999999999</c:v>
+                  <c:v>5.6171199999999999</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>3.4786999999999999</c:v>
+                  <c:v>5.7529600000000007</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>3.28796</c:v>
+                  <c:v>5.8743600000000002</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>3.20356</c:v>
+                  <c:v>5.9542200000000003</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>3.0850399999999998</c:v>
+                  <c:v>5.9586000000000006</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>3.0313400000000001</c:v>
+                  <c:v>6.0025399999999998</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>2.9521600000000001</c:v>
+                  <c:v>6.0465999999999998</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>2.8768400000000001</c:v>
+                  <c:v>6.0812599999999994</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>2.80362</c:v>
+                  <c:v>6.0907000000000009</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>2.7877999999999998</c:v>
+                  <c:v>6.0000199999999992</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>2.8049200000000001</c:v>
+                  <c:v>5.8019600000000002</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>2.7988400000000002</c:v>
+                  <c:v>5.3451000000000004</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>2.7801200000000001</c:v>
+                  <c:v>4.92666</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>2.7904800000000001</c:v>
+                  <c:v>4.43032</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>2.7926600000000001</c:v>
+                  <c:v>3.2483399999999998</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>2.77142</c:v>
+                  <c:v>2.1250800000000001</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>2.7334000000000001</c:v>
+                  <c:v>1.669934</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>2.5542400000000001</c:v>
+                  <c:v>1.558988</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>2.52312</c:v>
+                  <c:v>1.487066</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>2.5171199999999998</c:v>
+                  <c:v>1.471214</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>2.5279799999999999</c:v>
+                  <c:v>1.4798880000000001</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>2.55342</c:v>
+                  <c:v>1.4972259999999999</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>2.58832</c:v>
+                  <c:v>1.5176940000000001</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>2.5631599999999999</c:v>
+                  <c:v>1.5409759999999999</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>2.5636800000000002</c:v>
+                  <c:v>1.5656639999999999</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>2.6057399999999999</c:v>
+                  <c:v>1.590994</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>2.6493799999999998</c:v>
+                  <c:v>1.6168180000000001</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>2.6916799999999999</c:v>
+                  <c:v>1.6411519999999999</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>2.7307800000000002</c:v>
+                  <c:v>1.6596500000000001</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>2.7743799999999998</c:v>
+                  <c:v>1.6838340000000001</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>2.8159000000000001</c:v>
+                  <c:v>1.7067540000000001</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>2.8496999999999999</c:v>
+                  <c:v>1.727732</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>2.8831199999999999</c:v>
+                  <c:v>1.7494639999999999</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>2.9209800000000001</c:v>
+                  <c:v>1.760758</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>2.96224</c:v>
+                  <c:v>1.7814179999999999</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>3.0030399999999999</c:v>
+                  <c:v>1.803534</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>3.0421200000000002</c:v>
+                  <c:v>1.8269820000000001</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>3.0564399999999998</c:v>
+                  <c:v>1.8492120000000001</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>3.0924800000000001</c:v>
+                  <c:v>1.8661179999999999</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>3.09598</c:v>
+                  <c:v>1.889756</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>3.0902799999999999</c:v>
+                  <c:v>1.9142459999999999</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>2.9518800000000001</c:v>
+                  <c:v>1.9128039999999999</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>2.9300799999999998</c:v>
+                  <c:v>1.933808</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>2.87514</c:v>
+                  <c:v>1.948744</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>2.9017599999999999</c:v>
+                  <c:v>1.96516</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>2.9373999999999998</c:v>
+                  <c:v>1.9899260000000001</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>2.9727000000000001</c:v>
+                  <c:v>2.0023</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>3.0087600000000001</c:v>
+                  <c:v>2.0260400000000001</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>3.0455399999999999</c:v>
+                  <c:v>2.0473400000000002</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>3.0823999999999998</c:v>
+                  <c:v>2.0697000000000001</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>3.11958</c:v>
+                  <c:v>2.08826</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>3.1539999999999999</c:v>
+                  <c:v>2.1117400000000002</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>3.1873</c:v>
+                  <c:v>2.1353200000000001</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>3.22418</c:v>
+                  <c:v>2.1465999999999998</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>3.2612800000000002</c:v>
+                  <c:v>2.1657999999999999</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>3.2981400000000001</c:v>
+                  <c:v>2.1894200000000001</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>3.32382</c:v>
+                  <c:v>2.2129400000000001</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>3.33744</c:v>
+                  <c:v>2.2369400000000002</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>3.3735599999999999</c:v>
+                  <c:v>2.2606199999999999</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>3.4102600000000001</c:v>
+                  <c:v>2.2840799999999999</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>3.4470399999999999</c:v>
+                  <c:v>2.30606</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>3.4833799999999999</c:v>
+                  <c:v>2.3196599999999998</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>3.51966</c:v>
+                  <c:v>2.3431799999999998</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>3.5530599999999999</c:v>
+                  <c:v>2.3666999999999998</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>3.5878199999999998</c:v>
+                  <c:v>2.3880599999999998</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>3.6230000000000002</c:v>
+                  <c:v>2.4109600000000002</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>3.65822</c:v>
+                  <c:v>2.4346399999999999</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>3.69394</c:v>
+                  <c:v>2.4582199999999998</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>3.7119599999999999</c:v>
+                  <c:v>2.4703200000000001</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>3.7205599999999999</c:v>
+                  <c:v>2.4760599999999999</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>3.7235200000000002</c:v>
+                  <c:v>2.4779399999999998</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>3.7244000000000002</c:v>
+                  <c:v>2.4777800000000001</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>3.7253599999999998</c:v>
+                  <c:v>2.4773399999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1913,7 +1912,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-0B01-FF49-8446-0BFB89415A1B}"/>
+              <c16:uniqueId val="{00000000-F3AD-E74F-821E-14AF6419EF02}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1946,7 +1945,6 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en"/>
                   <a:t>Strain [-]</a:t>
                 </a:r>
               </a:p>
@@ -1980,7 +1978,6 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en"/>
                   <a:t>Stress [MPa]</a:t>
                 </a:r>
               </a:p>
@@ -2027,6 +2024,23 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>10%</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -2046,7 +2060,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'lap=10_gap=1.5'!$C$2:$C$10</c:f>
+              <c:f>'lap=10_gap=2.5'!$C$2:$C$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -2082,36 +2096,36 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'lap=10_gap=1.5'!$D$2:$D$10</c:f>
+              <c:f>'lap=10_gap=2.5'!$D$2:$D$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>1.3288180000000001</c:v>
+                  <c:v>1.2035499999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.6576399999999998</c:v>
+                  <c:v>2.4070999999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.9864600000000001</c:v>
+                  <c:v>3.6106400000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.3152799999999996</c:v>
+                  <c:v>4.8141999999999996</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.6440999999999999</c:v>
+                  <c:v>6.0177399999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.9702200000000003</c:v>
+                  <c:v>7.2192600000000002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9.2808399999999995</c:v>
+                  <c:v>8.4048199999999991</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>10.562099999999999</c:v>
+                  <c:v>9.5580400000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>11.799720000000001</c:v>
+                  <c:v>10.67056</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2119,7 +2133,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-84B2-0F40-BB64-4F2E419010C7}"/>
+              <c16:uniqueId val="{00000000-3A8F-5346-9223-F1C739B84A0B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2152,7 +2166,6 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en"/>
                   <a:t>Strain [-]</a:t>
                 </a:r>
               </a:p>
@@ -2186,7 +2199,6 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en"/>
                   <a:t>Stress [MPa]</a:t>
                 </a:r>
               </a:p>
@@ -2243,8 +2255,7 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" altLang="ja-JP"/>
-              <a:t>10%</a:t>
+              <a:t>lap=10_gap=3</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -2270,7 +2281,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'lap=10_gap=2.5'!$C$2:$C$105</c:f>
+              <c:f>'lap=10_gap=3'!$C$2:$C$105</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="104"/>
@@ -2591,321 +2602,321 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'lap=10_gap=2.5'!$D$2:$D$105</c:f>
+              <c:f>'lap=10_gap=3'!$D$2:$D$105</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="104"/>
                 <c:pt idx="0">
-                  <c:v>1.2035499999999999</c:v>
+                  <c:v>1.1495379999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.4070999999999998</c:v>
+                  <c:v>2.29908</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.6106400000000001</c:v>
+                  <c:v>3.44862</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.8141999999999996</c:v>
+                  <c:v>4.59816</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.0177399999999999</c:v>
+                  <c:v>5.7476799999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.2192600000000002</c:v>
+                  <c:v>6.8961800000000002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8.4048199999999991</c:v>
+                  <c:v>8.0312800000000006</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9.5580400000000001</c:v>
+                  <c:v>9.1389999999999993</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>10.67056</c:v>
+                  <c:v>10.19388</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>11.741960000000001</c:v>
+                  <c:v>11.22818</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>12.772119999999999</c:v>
+                  <c:v>12.22902</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>13.752879999999999</c:v>
+                  <c:v>13.1686</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>14.31784</c:v>
+                  <c:v>13.6539</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>14.585660000000001</c:v>
+                  <c:v>14.0334</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>14.581200000000001</c:v>
+                  <c:v>14.06202</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>14.66268</c:v>
+                  <c:v>14.10844</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>14.88574</c:v>
+                  <c:v>14.285080000000001</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>15.12506</c:v>
+                  <c:v>14.53894</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>15.382379999999999</c:v>
+                  <c:v>14.829420000000001</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>15.62358</c:v>
+                  <c:v>15.168760000000001</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>15.26488</c:v>
+                  <c:v>15.506460000000001</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>5.5641400000000001</c:v>
+                  <c:v>15.77636</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>4.7781000000000002</c:v>
+                  <c:v>15.9533</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>4.8026</c:v>
+                  <c:v>15.61734</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>4.8673799999999998</c:v>
+                  <c:v>6.3197400000000004</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>4.9594399999999998</c:v>
+                  <c:v>5.4131799999999997</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>5.0621600000000004</c:v>
+                  <c:v>5.4588000000000001</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>5.1636199999999999</c:v>
+                  <c:v>5.57186</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>5.2755999999999998</c:v>
+                  <c:v>5.7061000000000002</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>5.3806600000000007</c:v>
+                  <c:v>5.8377599999999994</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>5.4845799999999993</c:v>
+                  <c:v>5.9243199999999998</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>5.6171199999999999</c:v>
+                  <c:v>6.0523999999999996</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>5.7529600000000007</c:v>
+                  <c:v>6.1093600000000006</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>5.8743600000000002</c:v>
+                  <c:v>6.1117999999999997</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>5.9542200000000003</c:v>
+                  <c:v>5.9739599999999999</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>5.9586000000000006</c:v>
+                  <c:v>5.7881200000000002</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>6.0025399999999998</c:v>
+                  <c:v>5.57918</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>6.0465999999999998</c:v>
+                  <c:v>5.2821799999999994</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>6.0812599999999994</c:v>
+                  <c:v>4.8905599999999998</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>6.0907000000000009</c:v>
+                  <c:v>4.4613399999999999</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>6.0000199999999992</c:v>
+                  <c:v>3.86206</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>5.8019600000000002</c:v>
+                  <c:v>3.2972199999999998</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>5.3451000000000004</c:v>
+                  <c:v>2.7577400000000001</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>4.92666</c:v>
+                  <c:v>1.948796</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>4.43032</c:v>
+                  <c:v>1.3789979999999999</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>3.2483399999999998</c:v>
+                  <c:v>1.3662920000000001</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>2.1250800000000001</c:v>
+                  <c:v>1.370682</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>1.669934</c:v>
+                  <c:v>1.389562</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>1.558988</c:v>
+                  <c:v>1.41096</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>1.487066</c:v>
+                  <c:v>1.4329860000000001</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>1.471214</c:v>
+                  <c:v>1.456</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>1.4798880000000001</c:v>
+                  <c:v>1.4794959999999999</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>1.4972259999999999</c:v>
+                  <c:v>1.5026219999999999</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>1.5176940000000001</c:v>
+                  <c:v>1.501576</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>1.5409759999999999</c:v>
+                  <c:v>1.5260860000000001</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>1.5656639999999999</c:v>
+                  <c:v>1.5510679999999999</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>1.590994</c:v>
+                  <c:v>1.5763799999999999</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>1.6168180000000001</c:v>
+                  <c:v>1.60141</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>1.6411519999999999</c:v>
+                  <c:v>1.6261000000000001</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>1.6596500000000001</c:v>
+                  <c:v>1.62724</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>1.6838340000000001</c:v>
+                  <c:v>1.6481399999999999</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>1.7067540000000001</c:v>
+                  <c:v>1.669146</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>1.727732</c:v>
+                  <c:v>1.6322479999999999</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>1.7494639999999999</c:v>
+                  <c:v>1.650064</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>1.760758</c:v>
+                  <c:v>1.666444</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>1.7814179999999999</c:v>
+                  <c:v>1.6813039999999999</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>1.803534</c:v>
+                  <c:v>1.698906</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>1.8269820000000001</c:v>
+                  <c:v>1.719238</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>1.8492120000000001</c:v>
+                  <c:v>1.741098</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>1.8661179999999999</c:v>
+                  <c:v>1.7614240000000001</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>1.889756</c:v>
+                  <c:v>1.781566</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>1.9142459999999999</c:v>
+                  <c:v>1.8040879999999999</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>1.9128039999999999</c:v>
+                  <c:v>1.825936</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>1.933808</c:v>
+                  <c:v>1.83992</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>1.948744</c:v>
+                  <c:v>1.8597360000000001</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>1.96516</c:v>
+                  <c:v>1.879632</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>1.9899260000000001</c:v>
+                  <c:v>1.9003399999999999</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>2.0023</c:v>
+                  <c:v>1.921716</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>2.0260400000000001</c:v>
+                  <c:v>1.943454</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>2.0473400000000002</c:v>
+                  <c:v>1.9659059999999999</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>2.0697000000000001</c:v>
+                  <c:v>1.9876959999999999</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>2.08826</c:v>
+                  <c:v>2.0026600000000001</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>2.1117400000000002</c:v>
+                  <c:v>2.0248200000000001</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>2.1353200000000001</c:v>
+                  <c:v>2.04582</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>2.1465999999999998</c:v>
+                  <c:v>2.0683600000000002</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>2.1657999999999999</c:v>
+                  <c:v>2.0904600000000002</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>2.1894200000000001</c:v>
+                  <c:v>2.1121599999999998</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>2.2129400000000001</c:v>
+                  <c:v>2.1341999999999999</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>2.2369400000000002</c:v>
+                  <c:v>2.1569799999999999</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>2.2606199999999999</c:v>
+                  <c:v>2.1781799999999998</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>2.2840799999999999</c:v>
+                  <c:v>2.2017199999999999</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>2.30606</c:v>
+                  <c:v>2.2243200000000001</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>2.3196599999999998</c:v>
+                  <c:v>2.2454000000000001</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>2.3431799999999998</c:v>
+                  <c:v>2.2685200000000001</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>2.3666999999999998</c:v>
+                  <c:v>2.2914599999999998</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>2.3880599999999998</c:v>
+                  <c:v>2.3146</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>2.4109600000000002</c:v>
+                  <c:v>2.3381599999999998</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>2.4346399999999999</c:v>
+                  <c:v>2.3613400000000002</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>2.4582199999999998</c:v>
+                  <c:v>2.3752399999999998</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>2.4703200000000001</c:v>
+                  <c:v>2.3866999999999998</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>2.4760599999999999</c:v>
+                  <c:v>2.3919999999999999</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>2.4779399999999998</c:v>
+                  <c:v>2.3934199999999999</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>2.4777800000000001</c:v>
+                  <c:v>2.3898999999999999</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>2.4773399999999999</c:v>
+                  <c:v>2.3891</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2913,7 +2924,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-4A00-CB4B-BDE9-0CF8BB4E8153}"/>
+              <c16:uniqueId val="{00000000-1C7A-4143-A8CF-63BF1CB87113}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2946,7 +2957,6 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en"/>
                   <a:t>Strain [-]</a:t>
                 </a:r>
               </a:p>
@@ -2980,7 +2990,6 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en"/>
                   <a:t>Stress [MPa]</a:t>
                 </a:r>
               </a:p>
@@ -3027,6 +3036,23 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>10%</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -3046,7 +3072,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'lap=10_gap=2.5'!$C$2:$C$10</c:f>
+              <c:f>'lap=10_gap=3'!$C$2:$C$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -3082,36 +3108,36 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'lap=10_gap=2.5'!$D$2:$D$10</c:f>
+              <c:f>'lap=10_gap=3'!$D$2:$D$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>1.2035499999999999</c:v>
+                  <c:v>1.1495379999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.4070999999999998</c:v>
+                  <c:v>2.29908</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.6106400000000001</c:v>
+                  <c:v>3.44862</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.8141999999999996</c:v>
+                  <c:v>4.59816</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.0177399999999999</c:v>
+                  <c:v>5.7476799999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.2192600000000002</c:v>
+                  <c:v>6.8961800000000002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8.4048199999999991</c:v>
+                  <c:v>8.0312800000000006</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9.5580400000000001</c:v>
+                  <c:v>9.1389999999999993</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>10.67056</c:v>
+                  <c:v>10.19388</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3119,7 +3145,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-C9D1-3F40-8424-9F277BDC677B}"/>
+              <c16:uniqueId val="{00000000-F837-E04E-B1FC-ADB8FF14382D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3152,7 +3178,6 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en"/>
                   <a:t>Strain [-]</a:t>
                 </a:r>
               </a:p>
@@ -3186,7 +3211,6 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en"/>
                   <a:t>Stress [MPa]</a:t>
                 </a:r>
               </a:p>
@@ -3233,6 +3257,24 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP"/>
+              <a:t>10%</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -3325,7 +3367,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-38CC-D340-BDA3-1CFFF019A920}"/>
+              <c16:uniqueId val="{00000000-02DE-9A40-8CAD-6E1A44BB3E21}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3449,8 +3491,8 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" altLang="ja-JP"/>
-              <a:t>10%</a:t>
+              <a:rPr lang="en"/>
+              <a:t>lap=10_gap=0.5</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -4119,7 +4161,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-FE98-DE4E-9E5C-690F5898D575}"/>
+              <c16:uniqueId val="{00000000-2660-9E41-AE61-39B62C81D3A6}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4233,6 +4275,24 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP"/>
+              <a:t>10%</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -4325,7 +4385,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-A006-3C4A-A69D-F33D31C29A78}"/>
+              <c16:uniqueId val="{00000000-B53C-E549-8B44-FECD7A736013}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4449,8 +4509,8 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" altLang="ja-JP"/>
-              <a:t>10%</a:t>
+              <a:rPr lang="en"/>
+              <a:t>lap=10_gap=1</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -5119,7 +5179,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-1F57-4F42-967B-C126D0304E51}"/>
+              <c16:uniqueId val="{00000000-F977-484A-BAB7-28656ED8EAFF}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5233,6 +5293,24 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP"/>
+              <a:t>10%</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -5325,7 +5403,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-8297-9342-A845-D83744208FC4}"/>
+              <c16:uniqueId val="{00000000-93E3-4247-8B59-1E6A5A2DCCB1}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5449,8 +5527,7 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" altLang="ja-JP"/>
-              <a:t>10%</a:t>
+              <a:t>lap=10_gap=1.5</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -5476,10 +5553,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'lap=10_gap=2'!$C$2:$C$101</c:f>
+              <c:f>'lap=10_gap=1.5'!$C$2:$C$105</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="104"/>
                 <c:pt idx="0">
                   <c:v>2.5000000000000001E-4</c:v>
                 </c:pt>
@@ -5778,6 +5855,18 @@
                   <c:v>2.4750000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="99">
+                  <c:v>2.4875000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>2.4937500000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>2.4962499999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>2.4980833333333341E-2</c:v>
+                </c:pt>
+                <c:pt idx="103">
                   <c:v>2.5000000000000001E-2</c:v>
                 </c:pt>
               </c:numCache>
@@ -5785,309 +5874,321 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'lap=10_gap=2'!$D$2:$D$101</c:f>
+              <c:f>'lap=10_gap=1.5'!$D$2:$D$105</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="104"/>
                 <c:pt idx="0">
-                  <c:v>1.2642359999999999</c:v>
+                  <c:v>1.3288180000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.5284800000000001</c:v>
+                  <c:v>2.6576399999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.7927</c:v>
+                  <c:v>3.9864600000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.05694</c:v>
+                  <c:v>5.3152799999999996</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.3211800000000009</c:v>
+                  <c:v>6.6440999999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.5836800000000002</c:v>
+                  <c:v>7.9702200000000003</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8.8303399999999996</c:v>
+                  <c:v>9.2808399999999995</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>10.049860000000001</c:v>
+                  <c:v>10.562099999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>11.221959999999999</c:v>
+                  <c:v>11.799720000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>12.344720000000001</c:v>
+                  <c:v>12.9802</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>13.42958</c:v>
+                  <c:v>14.11936</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>14.46936</c:v>
+                  <c:v>15.228059999999999</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>15.10782</c:v>
+                  <c:v>16.025880000000001</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>15.462400000000001</c:v>
+                  <c:v>16.147179999999999</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>15.17554</c:v>
+                  <c:v>15.912140000000001</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>15.23714</c:v>
+                  <c:v>15.63612</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>15.346080000000001</c:v>
+                  <c:v>15.19666</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>15.37196</c:v>
+                  <c:v>11.80274</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>14.190580000000001</c:v>
+                  <c:v>3.8794200000000001</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>6.3183799999999994</c:v>
+                  <c:v>3.4138600000000001</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3.9875600000000002</c:v>
+                  <c:v>3.3873600000000001</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>3.9138799999999998</c:v>
+                  <c:v>3.4859200000000001</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>3.9869599999999998</c:v>
+                  <c:v>3.5722200000000002</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>4.1033600000000003</c:v>
+                  <c:v>3.6617000000000002</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>4.1691000000000003</c:v>
+                  <c:v>3.76078</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>4.1837</c:v>
+                  <c:v>3.85012</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>4.1478999999999999</c:v>
+                  <c:v>3.8924599999999998</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>4.1483400000000001</c:v>
+                  <c:v>3.9171399999999998</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>4.1501799999999998</c:v>
+                  <c:v>3.8560599999999998</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>4.1452800000000014</c:v>
+                  <c:v>3.7782800000000001</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>4.0758200000000002</c:v>
+                  <c:v>3.7093799999999999</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>4.0000999999999998</c:v>
+                  <c:v>3.5992199999999999</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>3.9350200000000002</c:v>
+                  <c:v>3.4786999999999999</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>3.8796599999999999</c:v>
+                  <c:v>3.28796</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>3.7917000000000001</c:v>
+                  <c:v>3.20356</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>3.6282999999999999</c:v>
+                  <c:v>3.0850399999999998</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>3.5062000000000002</c:v>
+                  <c:v>3.0313400000000001</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>3.45106</c:v>
+                  <c:v>2.9521600000000001</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>3.3643200000000002</c:v>
+                  <c:v>2.8768400000000001</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>3.2759800000000001</c:v>
+                  <c:v>2.80362</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>3.1424799999999999</c:v>
+                  <c:v>2.7877999999999998</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>2.94434</c:v>
+                  <c:v>2.8049200000000001</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>2.827</c:v>
+                  <c:v>2.7988400000000002</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>2.6730999999999998</c:v>
+                  <c:v>2.7801200000000001</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>2.28206</c:v>
+                  <c:v>2.7904800000000001</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>2.1444999999999999</c:v>
+                  <c:v>2.7926600000000001</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>2.1131600000000001</c:v>
+                  <c:v>2.77142</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>2.0417000000000001</c:v>
+                  <c:v>2.7334000000000001</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>2.0560200000000002</c:v>
+                  <c:v>2.5542400000000001</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>2.02494</c:v>
+                  <c:v>2.52312</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>2.0499000000000001</c:v>
+                  <c:v>2.5171199999999998</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>2.0854200000000001</c:v>
+                  <c:v>2.5279799999999999</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>2.12236</c:v>
+                  <c:v>2.55342</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>2.1402399999999999</c:v>
+                  <c:v>2.58832</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>2.1472000000000002</c:v>
+                  <c:v>2.5631599999999999</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>2.0981200000000002</c:v>
+                  <c:v>2.5636800000000002</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>2.1007799999999999</c:v>
+                  <c:v>2.6057399999999999</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>2.1329799999999999</c:v>
+                  <c:v>2.6493799999999998</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>2.1676000000000002</c:v>
+                  <c:v>2.6916799999999999</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>2.2027600000000001</c:v>
+                  <c:v>2.7307800000000002</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>2.0891000000000002</c:v>
+                  <c:v>2.7743799999999998</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>2.0937600000000001</c:v>
+                  <c:v>2.8159000000000001</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>2.1220400000000001</c:v>
+                  <c:v>2.8496999999999999</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>2.1512600000000002</c:v>
+                  <c:v>2.8831199999999999</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>2.1819600000000001</c:v>
+                  <c:v>2.9209800000000001</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>2.2113800000000001</c:v>
+                  <c:v>2.96224</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>2.2418999999999998</c:v>
+                  <c:v>3.0030399999999999</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>2.2717999999999998</c:v>
+                  <c:v>3.0421200000000002</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>2.2996400000000001</c:v>
+                  <c:v>3.0564399999999998</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>2.3265400000000001</c:v>
+                  <c:v>3.0924800000000001</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>2.3519199999999998</c:v>
+                  <c:v>3.09598</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>2.3819400000000002</c:v>
+                  <c:v>3.0902799999999999</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>2.4108200000000002</c:v>
+                  <c:v>2.9518800000000001</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>2.4387599999999998</c:v>
+                  <c:v>2.9300799999999998</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>2.4675199999999999</c:v>
+                  <c:v>2.87514</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>2.4948800000000002</c:v>
+                  <c:v>2.9017599999999999</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>2.5153400000000001</c:v>
+                  <c:v>2.9373999999999998</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>2.5207600000000001</c:v>
+                  <c:v>2.9727000000000001</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>2.5489199999999999</c:v>
+                  <c:v>3.0087600000000001</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>2.5645600000000002</c:v>
+                  <c:v>3.0455399999999999</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>2.5920200000000002</c:v>
+                  <c:v>3.0823999999999998</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>2.6190600000000002</c:v>
+                  <c:v>3.11958</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>2.6479400000000002</c:v>
+                  <c:v>3.1539999999999999</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>2.6722800000000002</c:v>
+                  <c:v>3.1873</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>2.6860400000000002</c:v>
+                  <c:v>3.22418</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>2.7093600000000002</c:v>
+                  <c:v>3.2612800000000002</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>2.73624</c:v>
+                  <c:v>3.2981400000000001</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>2.7631800000000002</c:v>
+                  <c:v>3.32382</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>2.7888999999999999</c:v>
+                  <c:v>3.33744</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>2.8097599999999998</c:v>
+                  <c:v>3.3735599999999999</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>2.83786</c:v>
+                  <c:v>3.4102600000000001</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>2.8654000000000002</c:v>
+                  <c:v>3.4470399999999999</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>2.8753199999999999</c:v>
+                  <c:v>3.4833799999999999</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>2.8796400000000002</c:v>
+                  <c:v>3.51966</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>2.8616600000000001</c:v>
+                  <c:v>3.5530599999999999</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>2.8848600000000002</c:v>
+                  <c:v>3.5878199999999998</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>2.9118200000000001</c:v>
+                  <c:v>3.6230000000000002</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>2.9399799999999998</c:v>
+                  <c:v>3.65822</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>2.9679600000000002</c:v>
+                  <c:v>3.69394</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>2.9870800000000002</c:v>
+                  <c:v>3.7119599999999999</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>3.7205599999999999</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>3.7235200000000002</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>3.7244000000000002</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>3.7253599999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6095,7 +6196,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-A2A5-2D47-B64A-413662DEBB1F}"/>
+              <c16:uniqueId val="{00000000-BB21-6844-BF3B-8AD41448EABF}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6128,7 +6229,6 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en"/>
                   <a:t>Strain [-]</a:t>
                 </a:r>
               </a:p>
@@ -6162,7 +6262,6 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en"/>
                   <a:t>Stress [MPa]</a:t>
                 </a:r>
               </a:p>
@@ -6209,6 +6308,23 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>10%</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -6228,10 +6344,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'lap=10_gap=2'!$C$2:$C$9</c:f>
+              <c:f>'lap=10_gap=1.5'!$C$2:$C$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>2.5000000000000001E-4</c:v>
                 </c:pt>
@@ -6255,39 +6371,45 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.2499999999999998E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'lap=10_gap=2'!$D$2:$D$9</c:f>
+              <c:f>'lap=10_gap=1.5'!$D$2:$D$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>1.2642359999999999</c:v>
+                  <c:v>1.3288180000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.5284800000000001</c:v>
+                  <c:v>2.6576399999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.7927</c:v>
+                  <c:v>3.9864600000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.05694</c:v>
+                  <c:v>5.3152799999999996</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.3211800000000009</c:v>
+                  <c:v>6.6440999999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.5836800000000002</c:v>
+                  <c:v>7.9702200000000003</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8.8303399999999996</c:v>
+                  <c:v>9.2808399999999995</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>10.049860000000001</c:v>
+                  <c:v>10.562099999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11.799720000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6295,7 +6417,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-2BBC-A44E-9238-EAAD2411DAD9}"/>
+              <c16:uniqueId val="{00000000-F775-544F-8E44-FFB41CB14A04}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6328,7 +6450,6 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en"/>
                   <a:t>Strain [-]</a:t>
                 </a:r>
               </a:p>
@@ -6362,7 +6483,6 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en"/>
                   <a:t>Stress [MPa]</a:t>
                 </a:r>
               </a:p>
@@ -6419,8 +6539,8 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" altLang="ja-JP"/>
-              <a:t>10%</a:t>
+              <a:rPr lang="en"/>
+              <a:t>lap=10_gap=2</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -6446,10 +6566,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'lap=10_gap=3'!$C$2:$C$105</c:f>
+              <c:f>'lap=10_gap=2'!$C$2:$C$101</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="104"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>2.5000000000000001E-4</c:v>
                 </c:pt>
@@ -6748,18 +6868,6 @@
                   <c:v>2.4750000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>2.4875000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>2.4937500000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>2.4962499999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>2.4980833333333341E-2</c:v>
-                </c:pt>
-                <c:pt idx="103">
                   <c:v>2.5000000000000001E-2</c:v>
                 </c:pt>
               </c:numCache>
@@ -6767,321 +6875,309 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'lap=10_gap=3'!$D$2:$D$105</c:f>
+              <c:f>'lap=10_gap=2'!$D$2:$D$101</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="104"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
-                  <c:v>1.1495379999999999</c:v>
+                  <c:v>1.2642359999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.29908</c:v>
+                  <c:v>2.5284800000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.44862</c:v>
+                  <c:v>3.7927</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.59816</c:v>
+                  <c:v>5.05694</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.7476799999999999</c:v>
+                  <c:v>6.3211800000000009</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.8961800000000002</c:v>
+                  <c:v>7.5836800000000002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8.0312800000000006</c:v>
+                  <c:v>8.8303399999999996</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9.1389999999999993</c:v>
+                  <c:v>10.049860000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>10.19388</c:v>
+                  <c:v>11.221959999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>11.22818</c:v>
+                  <c:v>12.344720000000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>12.22902</c:v>
+                  <c:v>13.42958</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>13.1686</c:v>
+                  <c:v>14.46936</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>13.6539</c:v>
+                  <c:v>15.10782</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>14.0334</c:v>
+                  <c:v>15.462400000000001</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>14.06202</c:v>
+                  <c:v>15.17554</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>14.10844</c:v>
+                  <c:v>15.23714</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>14.285080000000001</c:v>
+                  <c:v>15.346080000000001</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>14.53894</c:v>
+                  <c:v>15.37196</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>14.829420000000001</c:v>
+                  <c:v>14.190580000000001</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>15.168760000000001</c:v>
+                  <c:v>6.3183799999999994</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>15.506460000000001</c:v>
+                  <c:v>3.9875600000000002</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>15.77636</c:v>
+                  <c:v>3.9138799999999998</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>15.9533</c:v>
+                  <c:v>3.9869599999999998</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>15.61734</c:v>
+                  <c:v>4.1033600000000003</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>6.3197400000000004</c:v>
+                  <c:v>4.1691000000000003</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>5.4131799999999997</c:v>
+                  <c:v>4.1837</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>5.4588000000000001</c:v>
+                  <c:v>4.1478999999999999</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>5.57186</c:v>
+                  <c:v>4.1483400000000001</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>5.7061000000000002</c:v>
+                  <c:v>4.1501799999999998</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>5.8377599999999994</c:v>
+                  <c:v>4.1452800000000014</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>5.9243199999999998</c:v>
+                  <c:v>4.0758200000000002</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>6.0523999999999996</c:v>
+                  <c:v>4.0000999999999998</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>6.1093600000000006</c:v>
+                  <c:v>3.9350200000000002</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>6.1117999999999997</c:v>
+                  <c:v>3.8796599999999999</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>5.9739599999999999</c:v>
+                  <c:v>3.7917000000000001</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>5.7881200000000002</c:v>
+                  <c:v>3.6282999999999999</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>5.57918</c:v>
+                  <c:v>3.5062000000000002</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>5.2821799999999994</c:v>
+                  <c:v>3.45106</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>4.8905599999999998</c:v>
+                  <c:v>3.3643200000000002</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>4.4613399999999999</c:v>
+                  <c:v>3.2759800000000001</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>3.86206</c:v>
+                  <c:v>3.1424799999999999</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>3.2972199999999998</c:v>
+                  <c:v>2.94434</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>2.7577400000000001</c:v>
+                  <c:v>2.827</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>1.948796</c:v>
+                  <c:v>2.6730999999999998</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>1.3789979999999999</c:v>
+                  <c:v>2.28206</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>1.3662920000000001</c:v>
+                  <c:v>2.1444999999999999</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>1.370682</c:v>
+                  <c:v>2.1131600000000001</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>1.389562</c:v>
+                  <c:v>2.0417000000000001</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>1.41096</c:v>
+                  <c:v>2.0560200000000002</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>1.4329860000000001</c:v>
+                  <c:v>2.02494</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>1.456</c:v>
+                  <c:v>2.0499000000000001</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>1.4794959999999999</c:v>
+                  <c:v>2.0854200000000001</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>1.5026219999999999</c:v>
+                  <c:v>2.12236</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>1.501576</c:v>
+                  <c:v>2.1402399999999999</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>1.5260860000000001</c:v>
+                  <c:v>2.1472000000000002</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>1.5510679999999999</c:v>
+                  <c:v>2.0981200000000002</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>1.5763799999999999</c:v>
+                  <c:v>2.1007799999999999</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>1.60141</c:v>
+                  <c:v>2.1329799999999999</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>1.6261000000000001</c:v>
+                  <c:v>2.1676000000000002</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>1.62724</c:v>
+                  <c:v>2.2027600000000001</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>1.6481399999999999</c:v>
+                  <c:v>2.0891000000000002</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>1.669146</c:v>
+                  <c:v>2.0937600000000001</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>1.6322479999999999</c:v>
+                  <c:v>2.1220400000000001</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>1.650064</c:v>
+                  <c:v>2.1512600000000002</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>1.666444</c:v>
+                  <c:v>2.1819600000000001</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>1.6813039999999999</c:v>
+                  <c:v>2.2113800000000001</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>1.698906</c:v>
+                  <c:v>2.2418999999999998</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>1.719238</c:v>
+                  <c:v>2.2717999999999998</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>1.741098</c:v>
+                  <c:v>2.2996400000000001</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>1.7614240000000001</c:v>
+                  <c:v>2.3265400000000001</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>1.781566</c:v>
+                  <c:v>2.3519199999999998</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>1.8040879999999999</c:v>
+                  <c:v>2.3819400000000002</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>1.825936</c:v>
+                  <c:v>2.4108200000000002</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>1.83992</c:v>
+                  <c:v>2.4387599999999998</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>1.8597360000000001</c:v>
+                  <c:v>2.4675199999999999</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>1.879632</c:v>
+                  <c:v>2.4948800000000002</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>1.9003399999999999</c:v>
+                  <c:v>2.5153400000000001</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>1.921716</c:v>
+                  <c:v>2.5207600000000001</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>1.943454</c:v>
+                  <c:v>2.5489199999999999</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>1.9659059999999999</c:v>
+                  <c:v>2.5645600000000002</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>1.9876959999999999</c:v>
+                  <c:v>2.5920200000000002</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>2.0026600000000001</c:v>
+                  <c:v>2.6190600000000002</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>2.0248200000000001</c:v>
+                  <c:v>2.6479400000000002</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>2.04582</c:v>
+                  <c:v>2.6722800000000002</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>2.0683600000000002</c:v>
+                  <c:v>2.6860400000000002</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>2.0904600000000002</c:v>
+                  <c:v>2.7093600000000002</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>2.1121599999999998</c:v>
+                  <c:v>2.73624</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>2.1341999999999999</c:v>
+                  <c:v>2.7631800000000002</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>2.1569799999999999</c:v>
+                  <c:v>2.7888999999999999</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>2.1781799999999998</c:v>
+                  <c:v>2.8097599999999998</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>2.2017199999999999</c:v>
+                  <c:v>2.83786</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>2.2243200000000001</c:v>
+                  <c:v>2.8654000000000002</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>2.2454000000000001</c:v>
+                  <c:v>2.8753199999999999</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>2.2685200000000001</c:v>
+                  <c:v>2.8796400000000002</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>2.2914599999999998</c:v>
+                  <c:v>2.8616600000000001</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>2.3146</c:v>
+                  <c:v>2.8848600000000002</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>2.3381599999999998</c:v>
+                  <c:v>2.9118200000000001</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>2.3613400000000002</c:v>
+                  <c:v>2.9399799999999998</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>2.3752399999999998</c:v>
+                  <c:v>2.9679600000000002</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>2.3866999999999998</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>2.3919999999999999</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>2.3934199999999999</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>2.3898999999999999</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>2.3891</c:v>
+                  <c:v>2.9870800000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7089,7 +7185,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-ECF1-7649-8260-66373FCF28F0}"/>
+              <c16:uniqueId val="{00000000-6F5D-8746-95FF-8291D8BBB850}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7957,8 +8053,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -7995,9 +8091,7 @@
       <c r="A2" t="s">
         <v>6</v>
       </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
+      <c r="B2"/>
       <c r="F2" t="s">
         <v>7</v>
       </c>
@@ -8006,9 +8100,7 @@
       <c r="A3" t="s">
         <v>8</v>
       </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
+      <c r="B3"/>
       <c r="F3" t="s">
         <v>9</v>
       </c>
@@ -8017,9 +8109,7 @@
       <c r="A4" t="s">
         <v>10</v>
       </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
+      <c r="B4"/>
       <c r="F4" t="s">
         <v>11</v>
       </c>
@@ -8029,35 +8119,35 @@
         <v>12</v>
       </c>
       <c r="B5"/>
-      <c r="F5"/>
+      <c r="F5" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="B6"/>
       <c r="F6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B7"/>
-      <c r="F7"/>
+      <c r="F7" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="B8"/>
       <c r="F8" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -8077,19 +8167,19 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
         <v>7</v>
@@ -8109,7 +8199,7 @@
         <v>1.5035879999999999</v>
       </c>
       <c r="F2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G2">
         <v>17.258420000000001</v>
@@ -8129,7 +8219,7 @@
         <v>3.00718</v>
       </c>
       <c r="F3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G3">
         <v>5900.1538909090896</v>
@@ -9580,19 +9670,19 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
         <v>9</v>
@@ -9612,7 +9702,7 @@
         <v>1.4685360000000001</v>
       </c>
       <c r="F2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G2">
         <v>17.302479999999999</v>
@@ -9632,7 +9722,7 @@
         <v>2.9370799999999999</v>
       </c>
       <c r="F3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G3">
         <v>5765.2236606060605</v>
@@ -11083,19 +11173,19 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
         <v>11</v>
@@ -11115,7 +11205,7 @@
         <v>1.3985240000000001</v>
       </c>
       <c r="F2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G2">
         <v>16.901160000000001</v>
@@ -11135,7 +11225,7 @@
         <v>2.79704</v>
       </c>
       <c r="F3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G3">
         <v>5493.0042181818189</v>
@@ -12578,32 +12668,30 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:G101"/>
+  <dimension ref="A1:G105"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G107" sqref="G107"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="20"/>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -12611,19 +12699,19 @@
         <v>0.03</v>
       </c>
       <c r="B2">
-        <v>63.211799999999997</v>
+        <v>66.440899999999999</v>
       </c>
       <c r="C2">
         <v>2.5000000000000001E-4</v>
       </c>
       <c r="D2">
-        <v>1.2642359999999999</v>
+        <v>1.3288180000000001</v>
       </c>
       <c r="F2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G2">
-        <v>15.462400000000001</v>
+        <v>16.147179999999999</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -12631,19 +12719,19 @@
         <v>0.06</v>
       </c>
       <c r="B3">
-        <v>126.42400000000001</v>
+        <v>132.88200000000001</v>
       </c>
       <c r="C3">
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="D3">
-        <v>2.5284800000000001</v>
+        <v>2.6576399999999998</v>
       </c>
       <c r="F3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G3">
-        <v>4999.8037333333332</v>
+        <v>5211.1029818181814</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -12651,13 +12739,13 @@
         <v>0.09</v>
       </c>
       <c r="B4">
-        <v>189.63499999999999</v>
+        <v>199.32300000000001</v>
       </c>
       <c r="C4">
         <v>7.5000000000000002E-4</v>
       </c>
       <c r="D4">
-        <v>3.7927</v>
+        <v>3.9864600000000001</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -12665,13 +12753,13 @@
         <v>0.12</v>
       </c>
       <c r="B5">
-        <v>252.84700000000001</v>
+        <v>265.76400000000001</v>
       </c>
       <c r="C5">
         <v>1E-3</v>
       </c>
       <c r="D5">
-        <v>5.05694</v>
+        <v>5.3152799999999996</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -12679,13 +12767,13 @@
         <v>0.15</v>
       </c>
       <c r="B6">
-        <v>316.05900000000003</v>
+        <v>332.20499999999998</v>
       </c>
       <c r="C6">
         <v>1.25E-3</v>
       </c>
       <c r="D6">
-        <v>6.3211800000000009</v>
+        <v>6.6440999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -12693,13 +12781,13 @@
         <v>0.18</v>
       </c>
       <c r="B7">
-        <v>379.18400000000003</v>
+        <v>398.51100000000002</v>
       </c>
       <c r="C7">
         <v>1.5E-3</v>
       </c>
       <c r="D7">
-        <v>7.5836800000000002</v>
+        <v>7.9702200000000003</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -12707,13 +12795,13 @@
         <v>0.21</v>
       </c>
       <c r="B8">
-        <v>441.517</v>
+        <v>464.04199999999997</v>
       </c>
       <c r="C8">
         <v>1.75E-3</v>
       </c>
       <c r="D8">
-        <v>8.8303399999999996</v>
+        <v>9.2808399999999995</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -12721,13 +12809,13 @@
         <v>0.24</v>
       </c>
       <c r="B9">
-        <v>502.49299999999999</v>
+        <v>528.10500000000002</v>
       </c>
       <c r="C9">
         <v>2E-3</v>
       </c>
       <c r="D9">
-        <v>10.049860000000001</v>
+        <v>10.562099999999999</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -12735,13 +12823,13 @@
         <v>0.27</v>
       </c>
       <c r="B10">
-        <v>561.09799999999996</v>
+        <v>589.98599999999999</v>
       </c>
       <c r="C10">
         <v>2.2499999999999998E-3</v>
       </c>
       <c r="D10">
-        <v>11.221959999999999</v>
+        <v>11.799720000000001</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -12749,13 +12837,13 @@
         <v>0.3</v>
       </c>
       <c r="B11">
-        <v>617.23599999999999</v>
+        <v>649.01</v>
       </c>
       <c r="C11">
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="D11">
-        <v>12.344720000000001</v>
+        <v>12.9802</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -12763,13 +12851,13 @@
         <v>0.33</v>
       </c>
       <c r="B12">
-        <v>671.47900000000004</v>
+        <v>705.96799999999996</v>
       </c>
       <c r="C12">
         <v>2.7499999999999998E-3</v>
       </c>
       <c r="D12">
-        <v>13.42958</v>
+        <v>14.11936</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -12777,13 +12865,13 @@
         <v>0.36</v>
       </c>
       <c r="B13">
-        <v>723.46799999999996</v>
+        <v>761.40300000000002</v>
       </c>
       <c r="C13">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="D13">
-        <v>14.46936</v>
+        <v>15.228059999999999</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -12791,13 +12879,13 @@
         <v>0.39</v>
       </c>
       <c r="B14">
-        <v>755.39099999999996</v>
+        <v>801.29399999999998</v>
       </c>
       <c r="C14">
         <v>3.2500000000000012E-3</v>
       </c>
       <c r="D14">
-        <v>15.10782</v>
+        <v>16.025880000000001</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -12805,13 +12893,13 @@
         <v>0.42</v>
       </c>
       <c r="B15">
-        <v>773.12</v>
+        <v>807.35900000000004</v>
       </c>
       <c r="C15">
         <v>3.5000000000000001E-3</v>
       </c>
       <c r="D15">
-        <v>15.462400000000001</v>
+        <v>16.147179999999999</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -12819,13 +12907,13 @@
         <v>0.45</v>
       </c>
       <c r="B16">
-        <v>758.77700000000004</v>
+        <v>795.60699999999997</v>
       </c>
       <c r="C16">
         <v>3.7499999999999999E-3</v>
       </c>
       <c r="D16">
-        <v>15.17554</v>
+        <v>15.912140000000001</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -12833,13 +12921,13 @@
         <v>0.48</v>
       </c>
       <c r="B17">
-        <v>761.85699999999997</v>
+        <v>781.80600000000004</v>
       </c>
       <c r="C17">
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="D17">
-        <v>15.23714</v>
+        <v>15.63612</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -12847,13 +12935,13 @@
         <v>0.51</v>
       </c>
       <c r="B18">
-        <v>767.30399999999997</v>
+        <v>759.83299999999997</v>
       </c>
       <c r="C18">
         <v>4.2500000000000003E-3</v>
       </c>
       <c r="D18">
-        <v>15.346080000000001</v>
+        <v>15.19666</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -12861,13 +12949,13 @@
         <v>0.54</v>
       </c>
       <c r="B19">
-        <v>768.59799999999996</v>
+        <v>590.13699999999994</v>
       </c>
       <c r="C19">
         <v>4.5000000000000014E-3</v>
       </c>
       <c r="D19">
-        <v>15.37196</v>
+        <v>11.80274</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -12875,13 +12963,13 @@
         <v>0.56999999999999995</v>
       </c>
       <c r="B20">
-        <v>709.529</v>
+        <v>193.971</v>
       </c>
       <c r="C20">
         <v>4.7499999999999999E-3</v>
       </c>
       <c r="D20">
-        <v>14.190580000000001</v>
+        <v>3.8794200000000001</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -12889,13 +12977,13 @@
         <v>0.6</v>
       </c>
       <c r="B21">
-        <v>315.91899999999998</v>
+        <v>170.69300000000001</v>
       </c>
       <c r="C21">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="D21">
-        <v>6.3183799999999994</v>
+        <v>3.4138600000000001</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -12903,13 +12991,13 @@
         <v>0.63</v>
       </c>
       <c r="B22">
-        <v>199.37799999999999</v>
+        <v>169.36799999999999</v>
       </c>
       <c r="C22">
         <v>5.2500000000000003E-3</v>
       </c>
       <c r="D22">
-        <v>3.9875600000000002</v>
+        <v>3.3873600000000001</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -12917,13 +13005,13 @@
         <v>0.66</v>
       </c>
       <c r="B23">
-        <v>195.69399999999999</v>
+        <v>174.29599999999999</v>
       </c>
       <c r="C23">
         <v>5.5000000000000014E-3</v>
       </c>
       <c r="D23">
-        <v>3.9138799999999998</v>
+        <v>3.4859200000000001</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -12931,13 +13019,13 @@
         <v>0.69</v>
       </c>
       <c r="B24">
-        <v>199.34800000000001</v>
+        <v>178.61099999999999</v>
       </c>
       <c r="C24">
         <v>5.7499999999999999E-3</v>
       </c>
       <c r="D24">
-        <v>3.9869599999999998</v>
+        <v>3.5722200000000002</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -12945,13 +13033,13 @@
         <v>0.72</v>
       </c>
       <c r="B25">
-        <v>205.16800000000001</v>
+        <v>183.08500000000001</v>
       </c>
       <c r="C25">
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="D25">
-        <v>4.1033600000000003</v>
+        <v>3.6617000000000002</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -12959,13 +13047,13 @@
         <v>0.75</v>
       </c>
       <c r="B26">
-        <v>208.45500000000001</v>
+        <v>188.03899999999999</v>
       </c>
       <c r="C26">
         <v>6.2500000000000003E-3</v>
       </c>
       <c r="D26">
-        <v>4.1691000000000003</v>
+        <v>3.76078</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -12973,13 +13061,13 @@
         <v>0.78</v>
       </c>
       <c r="B27">
-        <v>209.185</v>
+        <v>192.506</v>
       </c>
       <c r="C27">
         <v>6.5000000000000006E-3</v>
       </c>
       <c r="D27">
-        <v>4.1837</v>
+        <v>3.85012</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -12987,13 +13075,13 @@
         <v>0.81</v>
       </c>
       <c r="B28">
-        <v>207.39500000000001</v>
+        <v>194.62299999999999</v>
       </c>
       <c r="C28">
         <v>6.7500000000000008E-3</v>
       </c>
       <c r="D28">
-        <v>4.1478999999999999</v>
+        <v>3.8924599999999998</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -13001,13 +13089,13 @@
         <v>0.84</v>
       </c>
       <c r="B29">
-        <v>207.417</v>
+        <v>195.857</v>
       </c>
       <c r="C29">
         <v>7.0000000000000001E-3</v>
       </c>
       <c r="D29">
-        <v>4.1483400000000001</v>
+        <v>3.9171399999999998</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -13015,13 +13103,13 @@
         <v>0.87</v>
       </c>
       <c r="B30">
-        <v>207.50899999999999</v>
+        <v>192.803</v>
       </c>
       <c r="C30">
         <v>7.2500000000000004E-3</v>
       </c>
       <c r="D30">
-        <v>4.1501799999999998</v>
+        <v>3.8560599999999998</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -13029,13 +13117,13 @@
         <v>0.9</v>
       </c>
       <c r="B31">
-        <v>207.26400000000001</v>
+        <v>188.91399999999999</v>
       </c>
       <c r="C31">
         <v>7.5000000000000006E-3</v>
       </c>
       <c r="D31">
-        <v>4.1452800000000014</v>
+        <v>3.7782800000000001</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -13043,13 +13131,13 @@
         <v>0.93</v>
       </c>
       <c r="B32">
-        <v>203.791</v>
+        <v>185.46899999999999</v>
       </c>
       <c r="C32">
         <v>7.7500000000000008E-3</v>
       </c>
       <c r="D32">
-        <v>4.0758200000000002</v>
+        <v>3.7093799999999999</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -13057,13 +13145,13 @@
         <v>0.96</v>
       </c>
       <c r="B33">
-        <v>200.005</v>
+        <v>179.96100000000001</v>
       </c>
       <c r="C33">
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="D33">
-        <v>4.0000999999999998</v>
+        <v>3.5992199999999999</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -13071,13 +13159,13 @@
         <v>0.99</v>
       </c>
       <c r="B34">
-        <v>196.751</v>
+        <v>173.935</v>
       </c>
       <c r="C34">
         <v>8.2500000000000004E-3</v>
       </c>
       <c r="D34">
-        <v>3.9350200000000002</v>
+        <v>3.4786999999999999</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -13085,13 +13173,13 @@
         <v>1.02</v>
       </c>
       <c r="B35">
-        <v>193.983</v>
+        <v>164.398</v>
       </c>
       <c r="C35">
         <v>8.5000000000000006E-3</v>
       </c>
       <c r="D35">
-        <v>3.8796599999999999</v>
+        <v>3.28796</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -13099,13 +13187,13 @@
         <v>1.05</v>
       </c>
       <c r="B36">
-        <v>189.58500000000001</v>
+        <v>160.178</v>
       </c>
       <c r="C36">
         <v>8.7500000000000008E-3</v>
       </c>
       <c r="D36">
-        <v>3.7917000000000001</v>
+        <v>3.20356</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -13113,13 +13201,13 @@
         <v>1.08</v>
       </c>
       <c r="B37">
-        <v>181.41499999999999</v>
+        <v>154.25200000000001</v>
       </c>
       <c r="C37">
         <v>9.0000000000000011E-3</v>
       </c>
       <c r="D37">
-        <v>3.6282999999999999</v>
+        <v>3.0850399999999998</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -13127,13 +13215,13 @@
         <v>1.1100000000000001</v>
       </c>
       <c r="B38">
-        <v>175.31</v>
+        <v>151.56700000000001</v>
       </c>
       <c r="C38">
         <v>9.2500000000000013E-3</v>
       </c>
       <c r="D38">
-        <v>3.5062000000000002</v>
+        <v>3.0313400000000001</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -13141,13 +13229,13 @@
         <v>1.1399999999999999</v>
       </c>
       <c r="B39">
-        <v>172.553</v>
+        <v>147.608</v>
       </c>
       <c r="C39">
         <v>9.4999999999999998E-3</v>
       </c>
       <c r="D39">
-        <v>3.45106</v>
+        <v>2.9521600000000001</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -13155,13 +13243,13 @@
         <v>1.17</v>
       </c>
       <c r="B40">
-        <v>168.21600000000001</v>
+        <v>143.84200000000001</v>
       </c>
       <c r="C40">
         <v>9.75E-3</v>
       </c>
       <c r="D40">
-        <v>3.3643200000000002</v>
+        <v>2.8768400000000001</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -13169,13 +13257,13 @@
         <v>1.2</v>
       </c>
       <c r="B41">
-        <v>163.79900000000001</v>
+        <v>140.18100000000001</v>
       </c>
       <c r="C41">
         <v>0.01</v>
       </c>
       <c r="D41">
-        <v>3.2759800000000001</v>
+        <v>2.80362</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -13183,13 +13271,13 @@
         <v>1.23</v>
       </c>
       <c r="B42">
-        <v>157.124</v>
+        <v>139.38999999999999</v>
       </c>
       <c r="C42">
         <v>1.025E-2</v>
       </c>
       <c r="D42">
-        <v>3.1424799999999999</v>
+        <v>2.7877999999999998</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -13197,13 +13285,13 @@
         <v>1.26</v>
       </c>
       <c r="B43">
-        <v>147.21700000000001</v>
+        <v>140.24600000000001</v>
       </c>
       <c r="C43">
         <v>1.0500000000000001E-2</v>
       </c>
       <c r="D43">
-        <v>2.94434</v>
+        <v>2.8049200000000001</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -13211,13 +13299,13 @@
         <v>1.29</v>
       </c>
       <c r="B44">
-        <v>141.35</v>
+        <v>139.94200000000001</v>
       </c>
       <c r="C44">
         <v>1.0749999999999999E-2</v>
       </c>
       <c r="D44">
-        <v>2.827</v>
+        <v>2.7988400000000002</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -13225,13 +13313,13 @@
         <v>1.32</v>
       </c>
       <c r="B45">
-        <v>133.655</v>
+        <v>139.006</v>
       </c>
       <c r="C45">
         <v>1.0999999999999999E-2</v>
       </c>
       <c r="D45">
-        <v>2.6730999999999998</v>
+        <v>2.7801200000000001</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -13239,13 +13327,13 @@
         <v>1.35</v>
       </c>
       <c r="B46">
-        <v>114.10299999999999</v>
+        <v>139.524</v>
       </c>
       <c r="C46">
         <v>1.125E-2</v>
       </c>
       <c r="D46">
-        <v>2.28206</v>
+        <v>2.7904800000000001</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -13253,13 +13341,13 @@
         <v>1.38</v>
       </c>
       <c r="B47">
-        <v>107.22499999999999</v>
+        <v>139.63300000000001</v>
       </c>
       <c r="C47">
         <v>1.15E-2</v>
       </c>
       <c r="D47">
-        <v>2.1444999999999999</v>
+        <v>2.7926600000000001</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -13267,13 +13355,13 @@
         <v>1.41</v>
       </c>
       <c r="B48">
-        <v>105.658</v>
+        <v>138.571</v>
       </c>
       <c r="C48">
         <v>1.175E-2</v>
       </c>
       <c r="D48">
-        <v>2.1131600000000001</v>
+        <v>2.77142</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -13281,13 +13369,13 @@
         <v>1.44</v>
       </c>
       <c r="B49">
-        <v>102.08499999999999</v>
+        <v>136.66999999999999</v>
       </c>
       <c r="C49">
         <v>1.2E-2</v>
       </c>
       <c r="D49">
-        <v>2.0417000000000001</v>
+        <v>2.7334000000000001</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -13295,13 +13383,13 @@
         <v>1.47</v>
       </c>
       <c r="B50">
-        <v>102.801</v>
+        <v>127.712</v>
       </c>
       <c r="C50">
         <v>1.225E-2</v>
       </c>
       <c r="D50">
-        <v>2.0560200000000002</v>
+        <v>2.5542400000000001</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -13309,13 +13397,13 @@
         <v>1.5</v>
       </c>
       <c r="B51">
-        <v>101.247</v>
+        <v>126.15600000000001</v>
       </c>
       <c r="C51">
         <v>1.2500000000000001E-2</v>
       </c>
       <c r="D51">
-        <v>2.02494</v>
+        <v>2.52312</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -13323,13 +13411,13 @@
         <v>1.53</v>
       </c>
       <c r="B52">
-        <v>102.495</v>
+        <v>125.85599999999999</v>
       </c>
       <c r="C52">
         <v>1.2749999999999999E-2</v>
       </c>
       <c r="D52">
-        <v>2.0499000000000001</v>
+        <v>2.5171199999999998</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -13337,13 +13425,13 @@
         <v>1.56</v>
       </c>
       <c r="B53">
-        <v>104.271</v>
+        <v>126.399</v>
       </c>
       <c r="C53">
         <v>1.2999999999999999E-2</v>
       </c>
       <c r="D53">
-        <v>2.0854200000000001</v>
+        <v>2.5279799999999999</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -13351,13 +13439,13 @@
         <v>1.59</v>
       </c>
       <c r="B54">
-        <v>106.11799999999999</v>
+        <v>127.67100000000001</v>
       </c>
       <c r="C54">
         <v>1.325E-2</v>
       </c>
       <c r="D54">
-        <v>2.12236</v>
+        <v>2.55342</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -13365,13 +13453,13 @@
         <v>1.62</v>
       </c>
       <c r="B55">
-        <v>107.012</v>
+        <v>129.416</v>
       </c>
       <c r="C55">
         <v>1.35E-2</v>
       </c>
       <c r="D55">
-        <v>2.1402399999999999</v>
+        <v>2.58832</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -13379,13 +13467,13 @@
         <v>1.65</v>
       </c>
       <c r="B56">
-        <v>107.36</v>
+        <v>128.15799999999999</v>
       </c>
       <c r="C56">
         <v>1.375E-2</v>
       </c>
       <c r="D56">
-        <v>2.1472000000000002</v>
+        <v>2.5631599999999999</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -13393,13 +13481,13 @@
         <v>1.68</v>
       </c>
       <c r="B57">
-        <v>104.90600000000001</v>
+        <v>128.184</v>
       </c>
       <c r="C57">
         <v>1.4E-2</v>
       </c>
       <c r="D57">
-        <v>2.0981200000000002</v>
+        <v>2.5636800000000002</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -13407,13 +13495,13 @@
         <v>1.71</v>
       </c>
       <c r="B58">
-        <v>105.039</v>
+        <v>130.28700000000001</v>
       </c>
       <c r="C58">
         <v>1.4250000000000001E-2</v>
       </c>
       <c r="D58">
-        <v>2.1007799999999999</v>
+        <v>2.6057399999999999</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -13421,13 +13509,13 @@
         <v>1.74</v>
       </c>
       <c r="B59">
-        <v>106.649</v>
+        <v>132.46899999999999</v>
       </c>
       <c r="C59">
         <v>1.4500000000000001E-2</v>
       </c>
       <c r="D59">
-        <v>2.1329799999999999</v>
+        <v>2.6493799999999998</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -13435,13 +13523,13 @@
         <v>1.77</v>
       </c>
       <c r="B60">
-        <v>108.38</v>
+        <v>134.584</v>
       </c>
       <c r="C60">
         <v>1.4749999999999999E-2</v>
       </c>
       <c r="D60">
-        <v>2.1676000000000002</v>
+        <v>2.6916799999999999</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -13449,13 +13537,13 @@
         <v>1.8</v>
       </c>
       <c r="B61">
-        <v>110.13800000000001</v>
+        <v>136.53899999999999</v>
       </c>
       <c r="C61">
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="D61">
-        <v>2.2027600000000001</v>
+        <v>2.7307800000000002</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -13463,13 +13551,13 @@
         <v>1.83</v>
       </c>
       <c r="B62">
-        <v>104.455</v>
+        <v>138.71899999999999</v>
       </c>
       <c r="C62">
         <v>1.525E-2</v>
       </c>
       <c r="D62">
-        <v>2.0891000000000002</v>
+        <v>2.7743799999999998</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -13477,13 +13565,13 @@
         <v>1.86</v>
       </c>
       <c r="B63">
-        <v>104.688</v>
+        <v>140.79499999999999</v>
       </c>
       <c r="C63">
         <v>1.55E-2</v>
       </c>
       <c r="D63">
-        <v>2.0937600000000001</v>
+        <v>2.8159000000000001</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -13491,13 +13579,13 @@
         <v>1.89</v>
       </c>
       <c r="B64">
-        <v>106.102</v>
+        <v>142.48500000000001</v>
       </c>
       <c r="C64">
         <v>1.575E-2</v>
       </c>
       <c r="D64">
-        <v>2.1220400000000001</v>
+        <v>2.8496999999999999</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -13505,13 +13593,13 @@
         <v>1.92</v>
       </c>
       <c r="B65">
-        <v>107.563</v>
+        <v>144.15600000000001</v>
       </c>
       <c r="C65">
         <v>1.6E-2</v>
       </c>
       <c r="D65">
-        <v>2.1512600000000002</v>
+        <v>2.8831199999999999</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -13519,13 +13607,13 @@
         <v>1.95</v>
       </c>
       <c r="B66">
-        <v>109.098</v>
+        <v>146.04900000000001</v>
       </c>
       <c r="C66">
         <v>1.6250000000000001E-2</v>
       </c>
       <c r="D66">
-        <v>2.1819600000000001</v>
+        <v>2.9209800000000001</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -13533,13 +13621,13 @@
         <v>1.98</v>
       </c>
       <c r="B67">
-        <v>110.569</v>
+        <v>148.11199999999999</v>
       </c>
       <c r="C67">
         <v>1.6500000000000001E-2</v>
       </c>
       <c r="D67">
-        <v>2.2113800000000001</v>
+        <v>2.96224</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -13547,13 +13635,13 @@
         <v>2.0099999999999998</v>
       </c>
       <c r="B68">
-        <v>112.095</v>
+        <v>150.15199999999999</v>
       </c>
       <c r="C68">
         <v>1.6750000000000001E-2</v>
       </c>
       <c r="D68">
-        <v>2.2418999999999998</v>
+        <v>3.0030399999999999</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -13561,13 +13649,13 @@
         <v>2.04</v>
       </c>
       <c r="B69">
-        <v>113.59</v>
+        <v>152.10599999999999</v>
       </c>
       <c r="C69">
         <v>1.7000000000000001E-2</v>
       </c>
       <c r="D69">
-        <v>2.2717999999999998</v>
+        <v>3.0421200000000002</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -13575,13 +13663,13 @@
         <v>2.0699999999999998</v>
       </c>
       <c r="B70">
-        <v>114.982</v>
+        <v>152.822</v>
       </c>
       <c r="C70">
         <v>1.7250000000000001E-2</v>
       </c>
       <c r="D70">
-        <v>2.2996400000000001</v>
+        <v>3.0564399999999998</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -13589,13 +13677,13 @@
         <v>2.1</v>
       </c>
       <c r="B71">
-        <v>116.327</v>
+        <v>154.624</v>
       </c>
       <c r="C71">
         <v>1.7500000000000002E-2</v>
       </c>
       <c r="D71">
-        <v>2.3265400000000001</v>
+        <v>3.0924800000000001</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -13603,13 +13691,13 @@
         <v>2.13</v>
       </c>
       <c r="B72">
-        <v>117.596</v>
+        <v>154.79900000000001</v>
       </c>
       <c r="C72">
         <v>1.7749999999999998E-2</v>
       </c>
       <c r="D72">
-        <v>2.3519199999999998</v>
+        <v>3.09598</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -13617,13 +13705,13 @@
         <v>2.16</v>
       </c>
       <c r="B73">
-        <v>119.09699999999999</v>
+        <v>154.51400000000001</v>
       </c>
       <c r="C73">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="D73">
-        <v>2.3819400000000002</v>
+        <v>3.0902799999999999</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -13631,13 +13719,13 @@
         <v>2.19</v>
       </c>
       <c r="B74">
-        <v>120.541</v>
+        <v>147.59399999999999</v>
       </c>
       <c r="C74">
         <v>1.8249999999999999E-2</v>
       </c>
       <c r="D74">
-        <v>2.4108200000000002</v>
+        <v>2.9518800000000001</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -13645,13 +13733,13 @@
         <v>2.2200000000000002</v>
       </c>
       <c r="B75">
-        <v>121.938</v>
+        <v>146.50399999999999</v>
       </c>
       <c r="C75">
         <v>1.8499999999999999E-2</v>
       </c>
       <c r="D75">
-        <v>2.4387599999999998</v>
+        <v>2.9300799999999998</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -13659,13 +13747,13 @@
         <v>2.25</v>
       </c>
       <c r="B76">
-        <v>123.376</v>
+        <v>143.75700000000001</v>
       </c>
       <c r="C76">
         <v>1.8749999999999999E-2</v>
       </c>
       <c r="D76">
-        <v>2.4675199999999999</v>
+        <v>2.87514</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -13673,13 +13761,13 @@
         <v>2.2799999999999998</v>
       </c>
       <c r="B77">
-        <v>124.744</v>
+        <v>145.08799999999999</v>
       </c>
       <c r="C77">
         <v>1.9E-2</v>
       </c>
       <c r="D77">
-        <v>2.4948800000000002</v>
+        <v>2.9017599999999999</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -13687,13 +13775,13 @@
         <v>2.31</v>
       </c>
       <c r="B78">
-        <v>125.767</v>
+        <v>146.87</v>
       </c>
       <c r="C78">
         <v>1.925E-2</v>
       </c>
       <c r="D78">
-        <v>2.5153400000000001</v>
+        <v>2.9373999999999998</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -13701,13 +13789,13 @@
         <v>2.34</v>
       </c>
       <c r="B79">
-        <v>126.038</v>
+        <v>148.63499999999999</v>
       </c>
       <c r="C79">
         <v>1.95E-2</v>
       </c>
       <c r="D79">
-        <v>2.5207600000000001</v>
+        <v>2.9727000000000001</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -13715,13 +13803,13 @@
         <v>2.37</v>
       </c>
       <c r="B80">
-        <v>127.446</v>
+        <v>150.43799999999999</v>
       </c>
       <c r="C80">
         <v>1.975E-2</v>
       </c>
       <c r="D80">
-        <v>2.5489199999999999</v>
+        <v>3.0087600000000001</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -13729,13 +13817,13 @@
         <v>2.4</v>
       </c>
       <c r="B81">
-        <v>128.22800000000001</v>
+        <v>152.27699999999999</v>
       </c>
       <c r="C81">
         <v>0.02</v>
       </c>
       <c r="D81">
-        <v>2.5645600000000002</v>
+        <v>3.0455399999999999</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -13743,13 +13831,13 @@
         <v>2.4300000000000002</v>
       </c>
       <c r="B82">
-        <v>129.601</v>
+        <v>154.12</v>
       </c>
       <c r="C82">
         <v>2.0250000000000001E-2</v>
       </c>
       <c r="D82">
-        <v>2.5920200000000002</v>
+        <v>3.0823999999999998</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -13757,13 +13845,13 @@
         <v>2.46</v>
       </c>
       <c r="B83">
-        <v>130.953</v>
+        <v>155.97900000000001</v>
       </c>
       <c r="C83">
         <v>2.0500000000000001E-2</v>
       </c>
       <c r="D83">
-        <v>2.6190600000000002</v>
+        <v>3.11958</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -13771,13 +13859,13 @@
         <v>2.4900000000000002</v>
       </c>
       <c r="B84">
-        <v>132.39699999999999</v>
+        <v>157.69999999999999</v>
       </c>
       <c r="C84">
         <v>2.0750000000000001E-2</v>
       </c>
       <c r="D84">
-        <v>2.6479400000000002</v>
+        <v>3.1539999999999999</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -13785,13 +13873,13 @@
         <v>2.52</v>
       </c>
       <c r="B85">
-        <v>133.614</v>
+        <v>159.36500000000001</v>
       </c>
       <c r="C85">
         <v>2.1000000000000001E-2</v>
       </c>
       <c r="D85">
-        <v>2.6722800000000002</v>
+        <v>3.1873</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -13799,13 +13887,13 @@
         <v>2.5499999999999998</v>
       </c>
       <c r="B86">
-        <v>134.30199999999999</v>
+        <v>161.209</v>
       </c>
       <c r="C86">
         <v>2.1250000000000002E-2</v>
       </c>
       <c r="D86">
-        <v>2.6860400000000002</v>
+        <v>3.22418</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -13813,13 +13901,13 @@
         <v>2.58</v>
       </c>
       <c r="B87">
-        <v>135.46799999999999</v>
+        <v>163.06399999999999</v>
       </c>
       <c r="C87">
         <v>2.1499999999999998E-2</v>
       </c>
       <c r="D87">
-        <v>2.7093600000000002</v>
+        <v>3.2612800000000002</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -13827,13 +13915,13 @@
         <v>2.61</v>
       </c>
       <c r="B88">
-        <v>136.81200000000001</v>
+        <v>164.90700000000001</v>
       </c>
       <c r="C88">
         <v>2.1749999999999999E-2</v>
       </c>
       <c r="D88">
-        <v>2.73624</v>
+        <v>3.2981400000000001</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -13841,13 +13929,13 @@
         <v>2.64</v>
       </c>
       <c r="B89">
-        <v>138.15899999999999</v>
+        <v>166.191</v>
       </c>
       <c r="C89">
         <v>2.1999999999999999E-2</v>
       </c>
       <c r="D89">
-        <v>2.7631800000000002</v>
+        <v>3.32382</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -13855,13 +13943,13 @@
         <v>2.67</v>
       </c>
       <c r="B90">
-        <v>139.44499999999999</v>
+        <v>166.87200000000001</v>
       </c>
       <c r="C90">
         <v>2.2249999999999999E-2</v>
       </c>
       <c r="D90">
-        <v>2.7888999999999999</v>
+        <v>3.33744</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -13869,13 +13957,13 @@
         <v>2.7</v>
       </c>
       <c r="B91">
-        <v>140.488</v>
+        <v>168.678</v>
       </c>
       <c r="C91">
         <v>2.2499999999999999E-2</v>
       </c>
       <c r="D91">
-        <v>2.8097599999999998</v>
+        <v>3.3735599999999999</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -13883,13 +13971,13 @@
         <v>2.73</v>
       </c>
       <c r="B92">
-        <v>141.893</v>
+        <v>170.51300000000001</v>
       </c>
       <c r="C92">
         <v>2.2749999999999999E-2</v>
       </c>
       <c r="D92">
-        <v>2.83786</v>
+        <v>3.4102600000000001</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -13897,13 +13985,13 @@
         <v>2.76</v>
       </c>
       <c r="B93">
-        <v>143.27000000000001</v>
+        <v>172.352</v>
       </c>
       <c r="C93">
         <v>2.3E-2</v>
       </c>
       <c r="D93">
-        <v>2.8654000000000002</v>
+        <v>3.4470399999999999</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -13911,13 +13999,13 @@
         <v>2.79</v>
       </c>
       <c r="B94">
-        <v>143.76599999999999</v>
+        <v>174.16900000000001</v>
       </c>
       <c r="C94">
         <v>2.325E-2</v>
       </c>
       <c r="D94">
-        <v>2.8753199999999999</v>
+        <v>3.4833799999999999</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -13925,13 +14013,13 @@
         <v>2.82</v>
       </c>
       <c r="B95">
-        <v>143.982</v>
+        <v>175.983</v>
       </c>
       <c r="C95">
         <v>2.35E-2</v>
       </c>
       <c r="D95">
-        <v>2.8796400000000002</v>
+        <v>3.51966</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -13939,13 +14027,13 @@
         <v>2.85</v>
       </c>
       <c r="B96">
-        <v>143.083</v>
+        <v>177.65299999999999</v>
       </c>
       <c r="C96">
         <v>2.375E-2</v>
       </c>
       <c r="D96">
-        <v>2.8616600000000001</v>
+        <v>3.5530599999999999</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -13953,13 +14041,13 @@
         <v>2.88</v>
       </c>
       <c r="B97">
-        <v>144.24299999999999</v>
+        <v>179.39099999999999</v>
       </c>
       <c r="C97">
         <v>2.4E-2</v>
       </c>
       <c r="D97">
-        <v>2.8848600000000002</v>
+        <v>3.5878199999999998</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -13967,13 +14055,13 @@
         <v>2.91</v>
       </c>
       <c r="B98">
-        <v>145.59100000000001</v>
+        <v>181.15</v>
       </c>
       <c r="C98">
         <v>2.4250000000000001E-2</v>
       </c>
       <c r="D98">
-        <v>2.9118200000000001</v>
+        <v>3.6230000000000002</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -13981,13 +14069,13 @@
         <v>2.94</v>
       </c>
       <c r="B99">
-        <v>146.999</v>
+        <v>182.911</v>
       </c>
       <c r="C99">
         <v>2.4500000000000001E-2</v>
       </c>
       <c r="D99">
-        <v>2.9399799999999998</v>
+        <v>3.65822</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -13995,27 +14083,83 @@
         <v>2.97</v>
       </c>
       <c r="B100">
-        <v>148.398</v>
+        <v>184.697</v>
       </c>
       <c r="C100">
         <v>2.4750000000000001E-2</v>
       </c>
       <c r="D100">
-        <v>2.9679600000000002</v>
+        <v>3.69394</v>
       </c>
     </row>
     <row r="101" spans="1:4">
       <c r="A101">
+        <v>2.9849999999999999</v>
+      </c>
+      <c r="B101">
+        <v>185.59800000000001</v>
+      </c>
+      <c r="C101">
+        <v>2.4875000000000001E-2</v>
+      </c>
+      <c r="D101">
+        <v>3.7119599999999999</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102">
+        <v>2.9925000000000002</v>
+      </c>
+      <c r="B102">
+        <v>186.02799999999999</v>
+      </c>
+      <c r="C102">
+        <v>2.4937500000000001E-2</v>
+      </c>
+      <c r="D102">
+        <v>3.7205599999999999</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
+      <c r="A103">
+        <v>2.9954999999999998</v>
+      </c>
+      <c r="B103">
+        <v>186.17599999999999</v>
+      </c>
+      <c r="C103">
+        <v>2.4962499999999999E-2</v>
+      </c>
+      <c r="D103">
+        <v>3.7235200000000002</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="A104">
+        <v>2.9977</v>
+      </c>
+      <c r="B104">
+        <v>186.22</v>
+      </c>
+      <c r="C104">
+        <v>2.4980833333333341E-2</v>
+      </c>
+      <c r="D104">
+        <v>3.7244000000000002</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="A105">
         <v>3</v>
       </c>
-      <c r="B101">
-        <v>149.35400000000001</v>
-      </c>
-      <c r="C101">
+      <c r="B105">
+        <v>186.268</v>
+      </c>
+      <c r="C105">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="D101">
-        <v>2.9870800000000002</v>
+      <c r="D105">
+        <v>3.7253599999999998</v>
       </c>
     </row>
   </sheetData>
@@ -14027,30 +14171,30 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:G105"/>
+  <dimension ref="A1:G101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="20"/>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -14058,19 +14202,19 @@
         <v>0.03</v>
       </c>
       <c r="B2">
-        <v>57.476900000000001</v>
+        <v>63.211799999999997</v>
       </c>
       <c r="C2">
         <v>2.5000000000000001E-4</v>
       </c>
       <c r="D2">
-        <v>1.1495379999999999</v>
+        <v>1.2642359999999999</v>
       </c>
       <c r="F2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G2">
-        <v>15.9533</v>
+        <v>15.462400000000001</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -14078,19 +14222,19 @@
         <v>0.06</v>
       </c>
       <c r="B3">
-        <v>114.95399999999999</v>
+        <v>126.42400000000001</v>
       </c>
       <c r="C3">
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="D3">
-        <v>2.29908</v>
+        <v>2.5284800000000001</v>
       </c>
       <c r="F3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G3">
-        <v>4505.9669818181819</v>
+        <v>4999.8037333333332</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -14098,13 +14242,13 @@
         <v>0.09</v>
       </c>
       <c r="B4">
-        <v>172.43100000000001</v>
+        <v>189.63499999999999</v>
       </c>
       <c r="C4">
         <v>7.5000000000000002E-4</v>
       </c>
       <c r="D4">
-        <v>3.44862</v>
+        <v>3.7927</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -14112,13 +14256,13 @@
         <v>0.12</v>
       </c>
       <c r="B5">
-        <v>229.90799999999999</v>
+        <v>252.84700000000001</v>
       </c>
       <c r="C5">
         <v>1E-3</v>
       </c>
       <c r="D5">
-        <v>4.59816</v>
+        <v>5.05694</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -14126,13 +14270,13 @@
         <v>0.15</v>
       </c>
       <c r="B6">
-        <v>287.38400000000001</v>
+        <v>316.05900000000003</v>
       </c>
       <c r="C6">
         <v>1.25E-3</v>
       </c>
       <c r="D6">
-        <v>5.7476799999999999</v>
+        <v>6.3211800000000009</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -14140,13 +14284,13 @@
         <v>0.18</v>
       </c>
       <c r="B7">
-        <v>344.80900000000003</v>
+        <v>379.18400000000003</v>
       </c>
       <c r="C7">
         <v>1.5E-3</v>
       </c>
       <c r="D7">
-        <v>6.8961800000000002</v>
+        <v>7.5836800000000002</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -14154,13 +14298,13 @@
         <v>0.21</v>
       </c>
       <c r="B8">
-        <v>401.56400000000002</v>
+        <v>441.517</v>
       </c>
       <c r="C8">
         <v>1.75E-3</v>
       </c>
       <c r="D8">
-        <v>8.0312800000000006</v>
+        <v>8.8303399999999996</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -14168,13 +14312,13 @@
         <v>0.24</v>
       </c>
       <c r="B9">
-        <v>456.95</v>
+        <v>502.49299999999999</v>
       </c>
       <c r="C9">
         <v>2E-3</v>
       </c>
       <c r="D9">
-        <v>9.1389999999999993</v>
+        <v>10.049860000000001</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -14182,13 +14326,13 @@
         <v>0.27</v>
       </c>
       <c r="B10">
-        <v>509.69400000000002</v>
+        <v>561.09799999999996</v>
       </c>
       <c r="C10">
         <v>2.2499999999999998E-3</v>
       </c>
       <c r="D10">
-        <v>10.19388</v>
+        <v>11.221959999999999</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -14196,13 +14340,13 @@
         <v>0.3</v>
       </c>
       <c r="B11">
-        <v>561.40899999999999</v>
+        <v>617.23599999999999</v>
       </c>
       <c r="C11">
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="D11">
-        <v>11.22818</v>
+        <v>12.344720000000001</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -14210,13 +14354,13 @@
         <v>0.33</v>
       </c>
       <c r="B12">
-        <v>611.45100000000002</v>
+        <v>671.47900000000004</v>
       </c>
       <c r="C12">
         <v>2.7499999999999998E-3</v>
       </c>
       <c r="D12">
-        <v>12.22902</v>
+        <v>13.42958</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -14224,13 +14368,13 @@
         <v>0.36</v>
       </c>
       <c r="B13">
-        <v>658.43</v>
+        <v>723.46799999999996</v>
       </c>
       <c r="C13">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="D13">
-        <v>13.1686</v>
+        <v>14.46936</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -14238,13 +14382,13 @@
         <v>0.39</v>
       </c>
       <c r="B14">
-        <v>682.69500000000005</v>
+        <v>755.39099999999996</v>
       </c>
       <c r="C14">
         <v>3.2500000000000012E-3</v>
       </c>
       <c r="D14">
-        <v>13.6539</v>
+        <v>15.10782</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -14252,13 +14396,13 @@
         <v>0.42</v>
       </c>
       <c r="B15">
-        <v>701.67</v>
+        <v>773.12</v>
       </c>
       <c r="C15">
         <v>3.5000000000000001E-3</v>
       </c>
       <c r="D15">
-        <v>14.0334</v>
+        <v>15.462400000000001</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -14266,13 +14410,13 @@
         <v>0.45</v>
       </c>
       <c r="B16">
-        <v>703.101</v>
+        <v>758.77700000000004</v>
       </c>
       <c r="C16">
         <v>3.7499999999999999E-3</v>
       </c>
       <c r="D16">
-        <v>14.06202</v>
+        <v>15.17554</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -14280,13 +14424,13 @@
         <v>0.48</v>
       </c>
       <c r="B17">
-        <v>705.42200000000003</v>
+        <v>761.85699999999997</v>
       </c>
       <c r="C17">
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="D17">
-        <v>14.10844</v>
+        <v>15.23714</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -14294,13 +14438,13 @@
         <v>0.51</v>
       </c>
       <c r="B18">
-        <v>714.25400000000002</v>
+        <v>767.30399999999997</v>
       </c>
       <c r="C18">
         <v>4.2500000000000003E-3</v>
       </c>
       <c r="D18">
-        <v>14.285080000000001</v>
+        <v>15.346080000000001</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -14308,13 +14452,13 @@
         <v>0.54</v>
       </c>
       <c r="B19">
-        <v>726.947</v>
+        <v>768.59799999999996</v>
       </c>
       <c r="C19">
         <v>4.5000000000000014E-3</v>
       </c>
       <c r="D19">
-        <v>14.53894</v>
+        <v>15.37196</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -14322,13 +14466,13 @@
         <v>0.56999999999999995</v>
       </c>
       <c r="B20">
-        <v>741.471</v>
+        <v>709.529</v>
       </c>
       <c r="C20">
         <v>4.7499999999999999E-3</v>
       </c>
       <c r="D20">
-        <v>14.829420000000001</v>
+        <v>14.190580000000001</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -14336,13 +14480,13 @@
         <v>0.6</v>
       </c>
       <c r="B21">
-        <v>758.43799999999999</v>
+        <v>315.91899999999998</v>
       </c>
       <c r="C21">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="D21">
-        <v>15.168760000000001</v>
+        <v>6.3183799999999994</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -14350,13 +14494,13 @@
         <v>0.63</v>
       </c>
       <c r="B22">
-        <v>775.32299999999998</v>
+        <v>199.37799999999999</v>
       </c>
       <c r="C22">
         <v>5.2500000000000003E-3</v>
       </c>
       <c r="D22">
-        <v>15.506460000000001</v>
+        <v>3.9875600000000002</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -14364,13 +14508,13 @@
         <v>0.66</v>
       </c>
       <c r="B23">
-        <v>788.81799999999998</v>
+        <v>195.69399999999999</v>
       </c>
       <c r="C23">
         <v>5.5000000000000014E-3</v>
       </c>
       <c r="D23">
-        <v>15.77636</v>
+        <v>3.9138799999999998</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -14378,13 +14522,13 @@
         <v>0.69</v>
       </c>
       <c r="B24">
-        <v>797.66499999999996</v>
+        <v>199.34800000000001</v>
       </c>
       <c r="C24">
         <v>5.7499999999999999E-3</v>
       </c>
       <c r="D24">
-        <v>15.9533</v>
+        <v>3.9869599999999998</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -14392,13 +14536,13 @@
         <v>0.72</v>
       </c>
       <c r="B25">
-        <v>780.86699999999996</v>
+        <v>205.16800000000001</v>
       </c>
       <c r="C25">
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="D25">
-        <v>15.61734</v>
+        <v>4.1033600000000003</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -14406,13 +14550,13 @@
         <v>0.75</v>
       </c>
       <c r="B26">
-        <v>315.98700000000002</v>
+        <v>208.45500000000001</v>
       </c>
       <c r="C26">
         <v>6.2500000000000003E-3</v>
       </c>
       <c r="D26">
-        <v>6.3197400000000004</v>
+        <v>4.1691000000000003</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -14420,13 +14564,13 @@
         <v>0.78</v>
       </c>
       <c r="B27">
-        <v>270.65899999999999</v>
+        <v>209.185</v>
       </c>
       <c r="C27">
         <v>6.5000000000000006E-3</v>
       </c>
       <c r="D27">
-        <v>5.4131799999999997</v>
+        <v>4.1837</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -14434,13 +14578,13 @@
         <v>0.81</v>
       </c>
       <c r="B28">
-        <v>272.94</v>
+        <v>207.39500000000001</v>
       </c>
       <c r="C28">
         <v>6.7500000000000008E-3</v>
       </c>
       <c r="D28">
-        <v>5.4588000000000001</v>
+        <v>4.1478999999999999</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -14448,13 +14592,13 @@
         <v>0.84</v>
       </c>
       <c r="B29">
-        <v>278.59300000000002</v>
+        <v>207.417</v>
       </c>
       <c r="C29">
         <v>7.0000000000000001E-3</v>
       </c>
       <c r="D29">
-        <v>5.57186</v>
+        <v>4.1483400000000001</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -14462,13 +14606,13 @@
         <v>0.87</v>
       </c>
       <c r="B30">
-        <v>285.30500000000001</v>
+        <v>207.50899999999999</v>
       </c>
       <c r="C30">
         <v>7.2500000000000004E-3</v>
       </c>
       <c r="D30">
-        <v>5.7061000000000002</v>
+        <v>4.1501799999999998</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -14476,13 +14620,13 @@
         <v>0.9</v>
       </c>
       <c r="B31">
-        <v>291.88799999999998</v>
+        <v>207.26400000000001</v>
       </c>
       <c r="C31">
         <v>7.5000000000000006E-3</v>
       </c>
       <c r="D31">
-        <v>5.8377599999999994</v>
+        <v>4.1452800000000014</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -14490,13 +14634,13 @@
         <v>0.93</v>
       </c>
       <c r="B32">
-        <v>296.21600000000001</v>
+        <v>203.791</v>
       </c>
       <c r="C32">
         <v>7.7500000000000008E-3</v>
       </c>
       <c r="D32">
-        <v>5.9243199999999998</v>
+        <v>4.0758200000000002</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -14504,13 +14648,13 @@
         <v>0.96</v>
       </c>
       <c r="B33">
-        <v>302.62</v>
+        <v>200.005</v>
       </c>
       <c r="C33">
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="D33">
-        <v>6.0523999999999996</v>
+        <v>4.0000999999999998</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -14518,13 +14662,13 @@
         <v>0.99</v>
       </c>
       <c r="B34">
-        <v>305.46800000000002</v>
+        <v>196.751</v>
       </c>
       <c r="C34">
         <v>8.2500000000000004E-3</v>
       </c>
       <c r="D34">
-        <v>6.1093600000000006</v>
+        <v>3.9350200000000002</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -14532,13 +14676,13 @@
         <v>1.02</v>
       </c>
       <c r="B35">
-        <v>305.58999999999997</v>
+        <v>193.983</v>
       </c>
       <c r="C35">
         <v>8.5000000000000006E-3</v>
       </c>
       <c r="D35">
-        <v>6.1117999999999997</v>
+        <v>3.8796599999999999</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -14546,13 +14690,13 @@
         <v>1.05</v>
       </c>
       <c r="B36">
-        <v>298.69799999999998</v>
+        <v>189.58500000000001</v>
       </c>
       <c r="C36">
         <v>8.7500000000000008E-3</v>
       </c>
       <c r="D36">
-        <v>5.9739599999999999</v>
+        <v>3.7917000000000001</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -14560,13 +14704,13 @@
         <v>1.08</v>
       </c>
       <c r="B37">
-        <v>289.40600000000001</v>
+        <v>181.41499999999999</v>
       </c>
       <c r="C37">
         <v>9.0000000000000011E-3</v>
       </c>
       <c r="D37">
-        <v>5.7881200000000002</v>
+        <v>3.6282999999999999</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -14574,13 +14718,13 @@
         <v>1.1100000000000001</v>
       </c>
       <c r="B38">
-        <v>278.959</v>
+        <v>175.31</v>
       </c>
       <c r="C38">
         <v>9.2500000000000013E-3</v>
       </c>
       <c r="D38">
-        <v>5.57918</v>
+        <v>3.5062000000000002</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -14588,13 +14732,13 @@
         <v>1.1399999999999999</v>
       </c>
       <c r="B39">
-        <v>264.10899999999998</v>
+        <v>172.553</v>
       </c>
       <c r="C39">
         <v>9.4999999999999998E-3</v>
       </c>
       <c r="D39">
-        <v>5.2821799999999994</v>
+        <v>3.45106</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -14602,13 +14746,13 @@
         <v>1.17</v>
       </c>
       <c r="B40">
-        <v>244.52799999999999</v>
+        <v>168.21600000000001</v>
       </c>
       <c r="C40">
         <v>9.75E-3</v>
       </c>
       <c r="D40">
-        <v>4.8905599999999998</v>
+        <v>3.3643200000000002</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -14616,13 +14760,13 @@
         <v>1.2</v>
       </c>
       <c r="B41">
-        <v>223.06700000000001</v>
+        <v>163.79900000000001</v>
       </c>
       <c r="C41">
         <v>0.01</v>
       </c>
       <c r="D41">
-        <v>4.4613399999999999</v>
+        <v>3.2759800000000001</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -14630,13 +14774,13 @@
         <v>1.23</v>
       </c>
       <c r="B42">
-        <v>193.10300000000001</v>
+        <v>157.124</v>
       </c>
       <c r="C42">
         <v>1.025E-2</v>
       </c>
       <c r="D42">
-        <v>3.86206</v>
+        <v>3.1424799999999999</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -14644,13 +14788,13 @@
         <v>1.26</v>
       </c>
       <c r="B43">
-        <v>164.86099999999999</v>
+        <v>147.21700000000001</v>
       </c>
       <c r="C43">
         <v>1.0500000000000001E-2</v>
       </c>
       <c r="D43">
-        <v>3.2972199999999998</v>
+        <v>2.94434</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -14658,13 +14802,13 @@
         <v>1.29</v>
       </c>
       <c r="B44">
-        <v>137.887</v>
+        <v>141.35</v>
       </c>
       <c r="C44">
         <v>1.0749999999999999E-2</v>
       </c>
       <c r="D44">
-        <v>2.7577400000000001</v>
+        <v>2.827</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -14672,13 +14816,13 @@
         <v>1.32</v>
       </c>
       <c r="B45">
-        <v>97.439800000000005</v>
+        <v>133.655</v>
       </c>
       <c r="C45">
         <v>1.0999999999999999E-2</v>
       </c>
       <c r="D45">
-        <v>1.948796</v>
+        <v>2.6730999999999998</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -14686,13 +14830,13 @@
         <v>1.35</v>
       </c>
       <c r="B46">
-        <v>68.9499</v>
+        <v>114.10299999999999</v>
       </c>
       <c r="C46">
         <v>1.125E-2</v>
       </c>
       <c r="D46">
-        <v>1.3789979999999999</v>
+        <v>2.28206</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -14700,13 +14844,13 @@
         <v>1.38</v>
       </c>
       <c r="B47">
-        <v>68.314599999999999</v>
+        <v>107.22499999999999</v>
       </c>
       <c r="C47">
         <v>1.15E-2</v>
       </c>
       <c r="D47">
-        <v>1.3662920000000001</v>
+        <v>2.1444999999999999</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -14714,13 +14858,13 @@
         <v>1.41</v>
       </c>
       <c r="B48">
-        <v>68.534099999999995</v>
+        <v>105.658</v>
       </c>
       <c r="C48">
         <v>1.175E-2</v>
       </c>
       <c r="D48">
-        <v>1.370682</v>
+        <v>2.1131600000000001</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -14728,13 +14872,13 @@
         <v>1.44</v>
       </c>
       <c r="B49">
-        <v>69.478099999999998</v>
+        <v>102.08499999999999</v>
       </c>
       <c r="C49">
         <v>1.2E-2</v>
       </c>
       <c r="D49">
-        <v>1.389562</v>
+        <v>2.0417000000000001</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -14742,13 +14886,13 @@
         <v>1.47</v>
       </c>
       <c r="B50">
-        <v>70.548000000000002</v>
+        <v>102.801</v>
       </c>
       <c r="C50">
         <v>1.225E-2</v>
       </c>
       <c r="D50">
-        <v>1.41096</v>
+        <v>2.0560200000000002</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -14756,13 +14900,13 @@
         <v>1.5</v>
       </c>
       <c r="B51">
-        <v>71.649299999999997</v>
+        <v>101.247</v>
       </c>
       <c r="C51">
         <v>1.2500000000000001E-2</v>
       </c>
       <c r="D51">
-        <v>1.4329860000000001</v>
+        <v>2.02494</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -14770,13 +14914,13 @@
         <v>1.53</v>
       </c>
       <c r="B52">
-        <v>72.8</v>
+        <v>102.495</v>
       </c>
       <c r="C52">
         <v>1.2749999999999999E-2</v>
       </c>
       <c r="D52">
-        <v>1.456</v>
+        <v>2.0499000000000001</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -14784,13 +14928,13 @@
         <v>1.56</v>
       </c>
       <c r="B53">
-        <v>73.974800000000002</v>
+        <v>104.271</v>
       </c>
       <c r="C53">
         <v>1.2999999999999999E-2</v>
       </c>
       <c r="D53">
-        <v>1.4794959999999999</v>
+        <v>2.0854200000000001</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -14798,13 +14942,13 @@
         <v>1.59</v>
       </c>
       <c r="B54">
-        <v>75.131100000000004</v>
+        <v>106.11799999999999</v>
       </c>
       <c r="C54">
         <v>1.325E-2</v>
       </c>
       <c r="D54">
-        <v>1.5026219999999999</v>
+        <v>2.12236</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -14812,13 +14956,13 @@
         <v>1.62</v>
       </c>
       <c r="B55">
-        <v>75.078800000000001</v>
+        <v>107.012</v>
       </c>
       <c r="C55">
         <v>1.35E-2</v>
       </c>
       <c r="D55">
-        <v>1.501576</v>
+        <v>2.1402399999999999</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -14826,13 +14970,13 @@
         <v>1.65</v>
       </c>
       <c r="B56">
-        <v>76.304299999999998</v>
+        <v>107.36</v>
       </c>
       <c r="C56">
         <v>1.375E-2</v>
       </c>
       <c r="D56">
-        <v>1.5260860000000001</v>
+        <v>2.1472000000000002</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -14840,13 +14984,13 @@
         <v>1.68</v>
       </c>
       <c r="B57">
-        <v>77.553399999999996</v>
+        <v>104.90600000000001</v>
       </c>
       <c r="C57">
         <v>1.4E-2</v>
       </c>
       <c r="D57">
-        <v>1.5510679999999999</v>
+        <v>2.0981200000000002</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -14854,13 +14998,13 @@
         <v>1.71</v>
       </c>
       <c r="B58">
-        <v>78.819000000000003</v>
+        <v>105.039</v>
       </c>
       <c r="C58">
         <v>1.4250000000000001E-2</v>
       </c>
       <c r="D58">
-        <v>1.5763799999999999</v>
+        <v>2.1007799999999999</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -14868,13 +15012,13 @@
         <v>1.74</v>
       </c>
       <c r="B59">
-        <v>80.070499999999996</v>
+        <v>106.649</v>
       </c>
       <c r="C59">
         <v>1.4500000000000001E-2</v>
       </c>
       <c r="D59">
-        <v>1.60141</v>
+        <v>2.1329799999999999</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -14882,13 +15026,13 @@
         <v>1.77</v>
       </c>
       <c r="B60">
-        <v>81.305000000000007</v>
+        <v>108.38</v>
       </c>
       <c r="C60">
         <v>1.4749999999999999E-2</v>
       </c>
       <c r="D60">
-        <v>1.6261000000000001</v>
+        <v>2.1676000000000002</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -14896,13 +15040,13 @@
         <v>1.8</v>
       </c>
       <c r="B61">
-        <v>81.361999999999995</v>
+        <v>110.13800000000001</v>
       </c>
       <c r="C61">
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="D61">
-        <v>1.62724</v>
+        <v>2.2027600000000001</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -14910,13 +15054,13 @@
         <v>1.83</v>
       </c>
       <c r="B62">
-        <v>82.406999999999996</v>
+        <v>104.455</v>
       </c>
       <c r="C62">
         <v>1.525E-2</v>
       </c>
       <c r="D62">
-        <v>1.6481399999999999</v>
+        <v>2.0891000000000002</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -14924,13 +15068,13 @@
         <v>1.86</v>
       </c>
       <c r="B63">
-        <v>83.457300000000004</v>
+        <v>104.688</v>
       </c>
       <c r="C63">
         <v>1.55E-2</v>
       </c>
       <c r="D63">
-        <v>1.669146</v>
+        <v>2.0937600000000001</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -14938,13 +15082,13 @@
         <v>1.89</v>
       </c>
       <c r="B64">
-        <v>81.612399999999994</v>
+        <v>106.102</v>
       </c>
       <c r="C64">
         <v>1.575E-2</v>
       </c>
       <c r="D64">
-        <v>1.6322479999999999</v>
+        <v>2.1220400000000001</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -14952,13 +15096,13 @@
         <v>1.92</v>
       </c>
       <c r="B65">
-        <v>82.503200000000007</v>
+        <v>107.563</v>
       </c>
       <c r="C65">
         <v>1.6E-2</v>
       </c>
       <c r="D65">
-        <v>1.650064</v>
+        <v>2.1512600000000002</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -14966,13 +15110,13 @@
         <v>1.95</v>
       </c>
       <c r="B66">
-        <v>83.322199999999995</v>
+        <v>109.098</v>
       </c>
       <c r="C66">
         <v>1.6250000000000001E-2</v>
       </c>
       <c r="D66">
-        <v>1.666444</v>
+        <v>2.1819600000000001</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -14980,13 +15124,13 @@
         <v>1.98</v>
       </c>
       <c r="B67">
-        <v>84.065200000000004</v>
+        <v>110.569</v>
       </c>
       <c r="C67">
         <v>1.6500000000000001E-2</v>
       </c>
       <c r="D67">
-        <v>1.6813039999999999</v>
+        <v>2.2113800000000001</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -14994,13 +15138,13 @@
         <v>2.0099999999999998</v>
       </c>
       <c r="B68">
-        <v>84.945300000000003</v>
+        <v>112.095</v>
       </c>
       <c r="C68">
         <v>1.6750000000000001E-2</v>
       </c>
       <c r="D68">
-        <v>1.698906</v>
+        <v>2.2418999999999998</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -15008,13 +15152,13 @@
         <v>2.04</v>
       </c>
       <c r="B69">
-        <v>85.9619</v>
+        <v>113.59</v>
       </c>
       <c r="C69">
         <v>1.7000000000000001E-2</v>
       </c>
       <c r="D69">
-        <v>1.719238</v>
+        <v>2.2717999999999998</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -15022,13 +15166,13 @@
         <v>2.0699999999999998</v>
       </c>
       <c r="B70">
-        <v>87.054900000000004</v>
+        <v>114.982</v>
       </c>
       <c r="C70">
         <v>1.7250000000000001E-2</v>
       </c>
       <c r="D70">
-        <v>1.741098</v>
+        <v>2.2996400000000001</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -15036,13 +15180,13 @@
         <v>2.1</v>
       </c>
       <c r="B71">
-        <v>88.071200000000005</v>
+        <v>116.327</v>
       </c>
       <c r="C71">
         <v>1.7500000000000002E-2</v>
       </c>
       <c r="D71">
-        <v>1.7614240000000001</v>
+        <v>2.3265400000000001</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -15050,13 +15194,13 @@
         <v>2.13</v>
       </c>
       <c r="B72">
-        <v>89.078299999999999</v>
+        <v>117.596</v>
       </c>
       <c r="C72">
         <v>1.7749999999999998E-2</v>
       </c>
       <c r="D72">
-        <v>1.781566</v>
+        <v>2.3519199999999998</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -15064,13 +15208,13 @@
         <v>2.16</v>
       </c>
       <c r="B73">
-        <v>90.204400000000007</v>
+        <v>119.09699999999999</v>
       </c>
       <c r="C73">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="D73">
-        <v>1.8040879999999999</v>
+        <v>2.3819400000000002</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -15078,13 +15222,13 @@
         <v>2.19</v>
       </c>
       <c r="B74">
-        <v>91.296800000000005</v>
+        <v>120.541</v>
       </c>
       <c r="C74">
         <v>1.8249999999999999E-2</v>
       </c>
       <c r="D74">
-        <v>1.825936</v>
+        <v>2.4108200000000002</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -15092,13 +15236,13 @@
         <v>2.2200000000000002</v>
       </c>
       <c r="B75">
-        <v>91.995999999999995</v>
+        <v>121.938</v>
       </c>
       <c r="C75">
         <v>1.8499999999999999E-2</v>
       </c>
       <c r="D75">
-        <v>1.83992</v>
+        <v>2.4387599999999998</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -15106,13 +15250,13 @@
         <v>2.25</v>
       </c>
       <c r="B76">
-        <v>92.986800000000002</v>
+        <v>123.376</v>
       </c>
       <c r="C76">
         <v>1.8749999999999999E-2</v>
       </c>
       <c r="D76">
-        <v>1.8597360000000001</v>
+        <v>2.4675199999999999</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -15120,13 +15264,13 @@
         <v>2.2799999999999998</v>
       </c>
       <c r="B77">
-        <v>93.9816</v>
+        <v>124.744</v>
       </c>
       <c r="C77">
         <v>1.9E-2</v>
       </c>
       <c r="D77">
-        <v>1.879632</v>
+        <v>2.4948800000000002</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -15134,13 +15278,13 @@
         <v>2.31</v>
       </c>
       <c r="B78">
-        <v>95.016999999999996</v>
+        <v>125.767</v>
       </c>
       <c r="C78">
         <v>1.925E-2</v>
       </c>
       <c r="D78">
-        <v>1.9003399999999999</v>
+        <v>2.5153400000000001</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -15148,13 +15292,13 @@
         <v>2.34</v>
       </c>
       <c r="B79">
-        <v>96.085800000000006</v>
+        <v>126.038</v>
       </c>
       <c r="C79">
         <v>1.95E-2</v>
       </c>
       <c r="D79">
-        <v>1.921716</v>
+        <v>2.5207600000000001</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -15162,13 +15306,13 @@
         <v>2.37</v>
       </c>
       <c r="B80">
-        <v>97.172700000000006</v>
+        <v>127.446</v>
       </c>
       <c r="C80">
         <v>1.975E-2</v>
       </c>
       <c r="D80">
-        <v>1.943454</v>
+        <v>2.5489199999999999</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -15176,13 +15320,13 @@
         <v>2.4</v>
       </c>
       <c r="B81">
-        <v>98.295299999999997</v>
+        <v>128.22800000000001</v>
       </c>
       <c r="C81">
         <v>0.02</v>
       </c>
       <c r="D81">
-        <v>1.9659059999999999</v>
+        <v>2.5645600000000002</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -15190,13 +15334,13 @@
         <v>2.4300000000000002</v>
       </c>
       <c r="B82">
-        <v>99.384799999999998</v>
+        <v>129.601</v>
       </c>
       <c r="C82">
         <v>2.0250000000000001E-2</v>
       </c>
       <c r="D82">
-        <v>1.9876959999999999</v>
+        <v>2.5920200000000002</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -15204,13 +15348,13 @@
         <v>2.46</v>
       </c>
       <c r="B83">
-        <v>100.133</v>
+        <v>130.953</v>
       </c>
       <c r="C83">
         <v>2.0500000000000001E-2</v>
       </c>
       <c r="D83">
-        <v>2.0026600000000001</v>
+        <v>2.6190600000000002</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -15218,13 +15362,13 @@
         <v>2.4900000000000002</v>
       </c>
       <c r="B84">
-        <v>101.241</v>
+        <v>132.39699999999999</v>
       </c>
       <c r="C84">
         <v>2.0750000000000001E-2</v>
       </c>
       <c r="D84">
-        <v>2.0248200000000001</v>
+        <v>2.6479400000000002</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -15232,13 +15376,13 @@
         <v>2.52</v>
       </c>
       <c r="B85">
-        <v>102.291</v>
+        <v>133.614</v>
       </c>
       <c r="C85">
         <v>2.1000000000000001E-2</v>
       </c>
       <c r="D85">
-        <v>2.04582</v>
+        <v>2.6722800000000002</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -15246,13 +15390,13 @@
         <v>2.5499999999999998</v>
       </c>
       <c r="B86">
-        <v>103.41800000000001</v>
+        <v>134.30199999999999</v>
       </c>
       <c r="C86">
         <v>2.1250000000000002E-2</v>
       </c>
       <c r="D86">
-        <v>2.0683600000000002</v>
+        <v>2.6860400000000002</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -15260,13 +15404,13 @@
         <v>2.58</v>
       </c>
       <c r="B87">
-        <v>104.523</v>
+        <v>135.46799999999999</v>
       </c>
       <c r="C87">
         <v>2.1499999999999998E-2</v>
       </c>
       <c r="D87">
-        <v>2.0904600000000002</v>
+        <v>2.7093600000000002</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -15274,13 +15418,13 @@
         <v>2.61</v>
       </c>
       <c r="B88">
-        <v>105.608</v>
+        <v>136.81200000000001</v>
       </c>
       <c r="C88">
         <v>2.1749999999999999E-2</v>
       </c>
       <c r="D88">
-        <v>2.1121599999999998</v>
+        <v>2.73624</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -15288,13 +15432,13 @@
         <v>2.64</v>
       </c>
       <c r="B89">
-        <v>106.71</v>
+        <v>138.15899999999999</v>
       </c>
       <c r="C89">
         <v>2.1999999999999999E-2</v>
       </c>
       <c r="D89">
-        <v>2.1341999999999999</v>
+        <v>2.7631800000000002</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -15302,13 +15446,13 @@
         <v>2.67</v>
       </c>
       <c r="B90">
-        <v>107.849</v>
+        <v>139.44499999999999</v>
       </c>
       <c r="C90">
         <v>2.2249999999999999E-2</v>
       </c>
       <c r="D90">
-        <v>2.1569799999999999</v>
+        <v>2.7888999999999999</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -15316,13 +15460,13 @@
         <v>2.7</v>
       </c>
       <c r="B91">
-        <v>108.90900000000001</v>
+        <v>140.488</v>
       </c>
       <c r="C91">
         <v>2.2499999999999999E-2</v>
       </c>
       <c r="D91">
-        <v>2.1781799999999998</v>
+        <v>2.8097599999999998</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -15330,13 +15474,13 @@
         <v>2.73</v>
       </c>
       <c r="B92">
-        <v>110.086</v>
+        <v>141.893</v>
       </c>
       <c r="C92">
         <v>2.2749999999999999E-2</v>
       </c>
       <c r="D92">
-        <v>2.2017199999999999</v>
+        <v>2.83786</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -15344,13 +15488,13 @@
         <v>2.76</v>
       </c>
       <c r="B93">
-        <v>111.21599999999999</v>
+        <v>143.27000000000001</v>
       </c>
       <c r="C93">
         <v>2.3E-2</v>
       </c>
       <c r="D93">
-        <v>2.2243200000000001</v>
+        <v>2.8654000000000002</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -15358,13 +15502,13 @@
         <v>2.79</v>
       </c>
       <c r="B94">
-        <v>112.27</v>
+        <v>143.76599999999999</v>
       </c>
       <c r="C94">
         <v>2.325E-2</v>
       </c>
       <c r="D94">
-        <v>2.2454000000000001</v>
+        <v>2.8753199999999999</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -15372,13 +15516,13 @@
         <v>2.82</v>
       </c>
       <c r="B95">
-        <v>113.426</v>
+        <v>143.982</v>
       </c>
       <c r="C95">
         <v>2.35E-2</v>
       </c>
       <c r="D95">
-        <v>2.2685200000000001</v>
+        <v>2.8796400000000002</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -15386,13 +15530,13 @@
         <v>2.85</v>
       </c>
       <c r="B96">
-        <v>114.57299999999999</v>
+        <v>143.083</v>
       </c>
       <c r="C96">
         <v>2.375E-2</v>
       </c>
       <c r="D96">
-        <v>2.2914599999999998</v>
+        <v>2.8616600000000001</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -15400,13 +15544,13 @@
         <v>2.88</v>
       </c>
       <c r="B97">
-        <v>115.73</v>
+        <v>144.24299999999999</v>
       </c>
       <c r="C97">
         <v>2.4E-2</v>
       </c>
       <c r="D97">
-        <v>2.3146</v>
+        <v>2.8848600000000002</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -15414,13 +15558,13 @@
         <v>2.91</v>
       </c>
       <c r="B98">
-        <v>116.908</v>
+        <v>145.59100000000001</v>
       </c>
       <c r="C98">
         <v>2.4250000000000001E-2</v>
       </c>
       <c r="D98">
-        <v>2.3381599999999998</v>
+        <v>2.9118200000000001</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -15428,13 +15572,13 @@
         <v>2.94</v>
       </c>
       <c r="B99">
-        <v>118.06699999999999</v>
+        <v>146.999</v>
       </c>
       <c r="C99">
         <v>2.4500000000000001E-2</v>
       </c>
       <c r="D99">
-        <v>2.3613400000000002</v>
+        <v>2.9399799999999998</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -15442,83 +15586,27 @@
         <v>2.97</v>
       </c>
       <c r="B100">
-        <v>118.762</v>
+        <v>148.398</v>
       </c>
       <c r="C100">
         <v>2.4750000000000001E-2</v>
       </c>
       <c r="D100">
-        <v>2.3752399999999998</v>
+        <v>2.9679600000000002</v>
       </c>
     </row>
     <row r="101" spans="1:4">
       <c r="A101">
-        <v>2.9849999999999999</v>
+        <v>3</v>
       </c>
       <c r="B101">
-        <v>119.33499999999999</v>
+        <v>149.35400000000001</v>
       </c>
       <c r="C101">
-        <v>2.4875000000000001E-2</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="D101">
-        <v>2.3866999999999998</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
-      <c r="A102">
-        <v>2.9925000000000002</v>
-      </c>
-      <c r="B102">
-        <v>119.6</v>
-      </c>
-      <c r="C102">
-        <v>2.4937500000000001E-2</v>
-      </c>
-      <c r="D102">
-        <v>2.3919999999999999</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
-      <c r="A103">
-        <v>2.9954999999999998</v>
-      </c>
-      <c r="B103">
-        <v>119.67100000000001</v>
-      </c>
-      <c r="C103">
-        <v>2.4962499999999999E-2</v>
-      </c>
-      <c r="D103">
-        <v>2.3934199999999999</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4">
-      <c r="A104">
-        <v>2.9977</v>
-      </c>
-      <c r="B104">
-        <v>119.495</v>
-      </c>
-      <c r="C104">
-        <v>2.4980833333333341E-2</v>
-      </c>
-      <c r="D104">
-        <v>2.3898999999999999</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4">
-      <c r="A105">
-        <v>3</v>
-      </c>
-      <c r="B105">
-        <v>119.455</v>
-      </c>
-      <c r="C105">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="D105">
-        <v>2.3891</v>
+        <v>2.9870800000000002</v>
       </c>
     </row>
   </sheetData>
@@ -15532,27 +15620,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:G105"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="20"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>21</v>
       </c>
+      <c r="C1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="F1" t="s">
-        <v>22</v>
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -15560,19 +15649,19 @@
         <v>0.03</v>
       </c>
       <c r="B2">
-        <v>66.440899999999999</v>
+        <v>60.177500000000002</v>
       </c>
       <c r="C2">
         <v>2.5000000000000001E-4</v>
       </c>
       <c r="D2">
-        <v>1.3288180000000001</v>
+        <v>1.2035499999999999</v>
       </c>
       <c r="F2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G2">
-        <v>16.147179999999999</v>
+        <v>15.62358</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -15580,19 +15669,19 @@
         <v>0.06</v>
       </c>
       <c r="B3">
-        <v>132.88200000000001</v>
+        <v>120.355</v>
       </c>
       <c r="C3">
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="D3">
-        <v>2.6576399999999998</v>
+        <v>2.4070999999999998</v>
       </c>
       <c r="F3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G3">
-        <v>5211.1029818181814</v>
+        <v>4712.7343030303027</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -15600,13 +15689,13 @@
         <v>0.09</v>
       </c>
       <c r="B4">
-        <v>199.32300000000001</v>
+        <v>180.53200000000001</v>
       </c>
       <c r="C4">
         <v>7.5000000000000002E-4</v>
       </c>
       <c r="D4">
-        <v>3.9864600000000001</v>
+        <v>3.6106400000000001</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -15614,13 +15703,13 @@
         <v>0.12</v>
       </c>
       <c r="B5">
-        <v>265.76400000000001</v>
+        <v>240.71</v>
       </c>
       <c r="C5">
         <v>1E-3</v>
       </c>
       <c r="D5">
-        <v>5.3152799999999996</v>
+        <v>4.8141999999999996</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -15628,13 +15717,13 @@
         <v>0.15</v>
       </c>
       <c r="B6">
-        <v>332.20499999999998</v>
+        <v>300.887</v>
       </c>
       <c r="C6">
         <v>1.25E-3</v>
       </c>
       <c r="D6">
-        <v>6.6440999999999999</v>
+        <v>6.0177399999999999</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -15642,13 +15731,13 @@
         <v>0.18</v>
       </c>
       <c r="B7">
-        <v>398.51100000000002</v>
+        <v>360.96300000000002</v>
       </c>
       <c r="C7">
         <v>1.5E-3</v>
       </c>
       <c r="D7">
-        <v>7.9702200000000003</v>
+        <v>7.2192600000000002</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -15656,13 +15745,13 @@
         <v>0.21</v>
       </c>
       <c r="B8">
-        <v>464.04199999999997</v>
+        <v>420.24099999999999</v>
       </c>
       <c r="C8">
         <v>1.75E-3</v>
       </c>
       <c r="D8">
-        <v>9.2808399999999995</v>
+        <v>8.4048199999999991</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -15670,13 +15759,13 @@
         <v>0.24</v>
       </c>
       <c r="B9">
-        <v>528.10500000000002</v>
+        <v>477.90199999999999</v>
       </c>
       <c r="C9">
         <v>2E-3</v>
       </c>
       <c r="D9">
-        <v>10.562099999999999</v>
+        <v>9.5580400000000001</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -15684,13 +15773,13 @@
         <v>0.27</v>
       </c>
       <c r="B10">
-        <v>589.98599999999999</v>
+        <v>533.52800000000002</v>
       </c>
       <c r="C10">
         <v>2.2499999999999998E-3</v>
       </c>
       <c r="D10">
-        <v>11.799720000000001</v>
+        <v>10.67056</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -15698,13 +15787,13 @@
         <v>0.3</v>
       </c>
       <c r="B11">
-        <v>649.01</v>
+        <v>587.09799999999996</v>
       </c>
       <c r="C11">
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="D11">
-        <v>12.9802</v>
+        <v>11.741960000000001</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -15712,13 +15801,13 @@
         <v>0.33</v>
       </c>
       <c r="B12">
-        <v>705.96799999999996</v>
+        <v>638.60599999999999</v>
       </c>
       <c r="C12">
         <v>2.7499999999999998E-3</v>
       </c>
       <c r="D12">
-        <v>14.11936</v>
+        <v>12.772119999999999</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -15726,13 +15815,13 @@
         <v>0.36</v>
       </c>
       <c r="B13">
-        <v>761.40300000000002</v>
+        <v>687.64400000000001</v>
       </c>
       <c r="C13">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="D13">
-        <v>15.228059999999999</v>
+        <v>13.752879999999999</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -15740,13 +15829,13 @@
         <v>0.39</v>
       </c>
       <c r="B14">
-        <v>801.29399999999998</v>
+        <v>715.89200000000005</v>
       </c>
       <c r="C14">
         <v>3.2500000000000012E-3</v>
       </c>
       <c r="D14">
-        <v>16.025880000000001</v>
+        <v>14.31784</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -15754,13 +15843,13 @@
         <v>0.42</v>
       </c>
       <c r="B15">
-        <v>807.35900000000004</v>
+        <v>729.28300000000002</v>
       </c>
       <c r="C15">
         <v>3.5000000000000001E-3</v>
       </c>
       <c r="D15">
-        <v>16.147179999999999</v>
+        <v>14.585660000000001</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -15768,13 +15857,13 @@
         <v>0.45</v>
       </c>
       <c r="B16">
-        <v>795.60699999999997</v>
+        <v>729.06</v>
       </c>
       <c r="C16">
         <v>3.7499999999999999E-3</v>
       </c>
       <c r="D16">
-        <v>15.912140000000001</v>
+        <v>14.581200000000001</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -15782,13 +15871,13 @@
         <v>0.48</v>
       </c>
       <c r="B17">
-        <v>781.80600000000004</v>
+        <v>733.13400000000001</v>
       </c>
       <c r="C17">
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="D17">
-        <v>15.63612</v>
+        <v>14.66268</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -15796,13 +15885,13 @@
         <v>0.51</v>
       </c>
       <c r="B18">
-        <v>759.83299999999997</v>
+        <v>744.28700000000003</v>
       </c>
       <c r="C18">
         <v>4.2500000000000003E-3</v>
       </c>
       <c r="D18">
-        <v>15.19666</v>
+        <v>14.88574</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -15810,13 +15899,13 @@
         <v>0.54</v>
       </c>
       <c r="B19">
-        <v>590.13699999999994</v>
+        <v>756.25300000000004</v>
       </c>
       <c r="C19">
         <v>4.5000000000000014E-3</v>
       </c>
       <c r="D19">
-        <v>11.80274</v>
+        <v>15.12506</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -15824,13 +15913,13 @@
         <v>0.56999999999999995</v>
       </c>
       <c r="B20">
-        <v>193.971</v>
+        <v>769.11900000000003</v>
       </c>
       <c r="C20">
         <v>4.7499999999999999E-3</v>
       </c>
       <c r="D20">
-        <v>3.8794200000000001</v>
+        <v>15.382379999999999</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -15838,13 +15927,13 @@
         <v>0.6</v>
       </c>
       <c r="B21">
-        <v>170.69300000000001</v>
+        <v>781.17899999999997</v>
       </c>
       <c r="C21">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="D21">
-        <v>3.4138600000000001</v>
+        <v>15.62358</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -15852,13 +15941,13 @@
         <v>0.63</v>
       </c>
       <c r="B22">
-        <v>169.36799999999999</v>
+        <v>763.24400000000003</v>
       </c>
       <c r="C22">
         <v>5.2500000000000003E-3</v>
       </c>
       <c r="D22">
-        <v>3.3873600000000001</v>
+        <v>15.26488</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -15866,13 +15955,13 @@
         <v>0.66</v>
       </c>
       <c r="B23">
-        <v>174.29599999999999</v>
+        <v>278.20699999999999</v>
       </c>
       <c r="C23">
         <v>5.5000000000000014E-3</v>
       </c>
       <c r="D23">
-        <v>3.4859200000000001</v>
+        <v>5.5641400000000001</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -15880,13 +15969,13 @@
         <v>0.69</v>
       </c>
       <c r="B24">
-        <v>178.61099999999999</v>
+        <v>238.905</v>
       </c>
       <c r="C24">
         <v>5.7499999999999999E-3</v>
       </c>
       <c r="D24">
-        <v>3.5722200000000002</v>
+        <v>4.7781000000000002</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -15894,13 +15983,13 @@
         <v>0.72</v>
       </c>
       <c r="B25">
-        <v>183.08500000000001</v>
+        <v>240.13</v>
       </c>
       <c r="C25">
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="D25">
-        <v>3.6617000000000002</v>
+        <v>4.8026</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -15908,13 +15997,13 @@
         <v>0.75</v>
       </c>
       <c r="B26">
-        <v>188.03899999999999</v>
+        <v>243.369</v>
       </c>
       <c r="C26">
         <v>6.2500000000000003E-3</v>
       </c>
       <c r="D26">
-        <v>3.76078</v>
+        <v>4.8673799999999998</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -15922,13 +16011,13 @@
         <v>0.78</v>
       </c>
       <c r="B27">
-        <v>192.506</v>
+        <v>247.97200000000001</v>
       </c>
       <c r="C27">
         <v>6.5000000000000006E-3</v>
       </c>
       <c r="D27">
-        <v>3.85012</v>
+        <v>4.9594399999999998</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -15936,13 +16025,13 @@
         <v>0.81</v>
       </c>
       <c r="B28">
-        <v>194.62299999999999</v>
+        <v>253.108</v>
       </c>
       <c r="C28">
         <v>6.7500000000000008E-3</v>
       </c>
       <c r="D28">
-        <v>3.8924599999999998</v>
+        <v>5.0621600000000004</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -15950,13 +16039,13 @@
         <v>0.84</v>
       </c>
       <c r="B29">
-        <v>195.857</v>
+        <v>258.18099999999998</v>
       </c>
       <c r="C29">
         <v>7.0000000000000001E-3</v>
       </c>
       <c r="D29">
-        <v>3.9171399999999998</v>
+        <v>5.1636199999999999</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -15964,13 +16053,13 @@
         <v>0.87</v>
       </c>
       <c r="B30">
-        <v>192.803</v>
+        <v>263.77999999999997</v>
       </c>
       <c r="C30">
         <v>7.2500000000000004E-3</v>
       </c>
       <c r="D30">
-        <v>3.8560599999999998</v>
+        <v>5.2755999999999998</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -15978,13 +16067,13 @@
         <v>0.9</v>
       </c>
       <c r="B31">
-        <v>188.91399999999999</v>
+        <v>269.03300000000002</v>
       </c>
       <c r="C31">
         <v>7.5000000000000006E-3</v>
       </c>
       <c r="D31">
-        <v>3.7782800000000001</v>
+        <v>5.3806600000000007</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -15992,13 +16081,13 @@
         <v>0.93</v>
       </c>
       <c r="B32">
-        <v>185.46899999999999</v>
+        <v>274.22899999999998</v>
       </c>
       <c r="C32">
         <v>7.7500000000000008E-3</v>
       </c>
       <c r="D32">
-        <v>3.7093799999999999</v>
+        <v>5.4845799999999993</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -16006,13 +16095,13 @@
         <v>0.96</v>
       </c>
       <c r="B33">
-        <v>179.96100000000001</v>
+        <v>280.85599999999999</v>
       </c>
       <c r="C33">
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="D33">
-        <v>3.5992199999999999</v>
+        <v>5.6171199999999999</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -16020,13 +16109,13 @@
         <v>0.99</v>
       </c>
       <c r="B34">
-        <v>173.935</v>
+        <v>287.64800000000002</v>
       </c>
       <c r="C34">
         <v>8.2500000000000004E-3</v>
       </c>
       <c r="D34">
-        <v>3.4786999999999999</v>
+        <v>5.7529600000000007</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -16034,13 +16123,13 @@
         <v>1.02</v>
       </c>
       <c r="B35">
-        <v>164.398</v>
+        <v>293.71800000000002</v>
       </c>
       <c r="C35">
         <v>8.5000000000000006E-3</v>
       </c>
       <c r="D35">
-        <v>3.28796</v>
+        <v>5.8743600000000002</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -16048,13 +16137,13 @@
         <v>1.05</v>
       </c>
       <c r="B36">
-        <v>160.178</v>
+        <v>297.71100000000001</v>
       </c>
       <c r="C36">
         <v>8.7500000000000008E-3</v>
       </c>
       <c r="D36">
-        <v>3.20356</v>
+        <v>5.9542200000000003</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -16062,13 +16151,13 @@
         <v>1.08</v>
       </c>
       <c r="B37">
-        <v>154.25200000000001</v>
+        <v>297.93</v>
       </c>
       <c r="C37">
         <v>9.0000000000000011E-3</v>
       </c>
       <c r="D37">
-        <v>3.0850399999999998</v>
+        <v>5.9586000000000006</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -16076,13 +16165,13 @@
         <v>1.1100000000000001</v>
       </c>
       <c r="B38">
-        <v>151.56700000000001</v>
+        <v>300.12700000000001</v>
       </c>
       <c r="C38">
         <v>9.2500000000000013E-3</v>
       </c>
       <c r="D38">
-        <v>3.0313400000000001</v>
+        <v>6.0025399999999998</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -16090,13 +16179,13 @@
         <v>1.1399999999999999</v>
       </c>
       <c r="B39">
-        <v>147.608</v>
+        <v>302.33</v>
       </c>
       <c r="C39">
         <v>9.4999999999999998E-3</v>
       </c>
       <c r="D39">
-        <v>2.9521600000000001</v>
+        <v>6.0465999999999998</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -16104,13 +16193,13 @@
         <v>1.17</v>
       </c>
       <c r="B40">
-        <v>143.84200000000001</v>
+        <v>304.06299999999999</v>
       </c>
       <c r="C40">
         <v>9.75E-3</v>
       </c>
       <c r="D40">
-        <v>2.8768400000000001</v>
+        <v>6.0812599999999994</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -16118,13 +16207,13 @@
         <v>1.2</v>
       </c>
       <c r="B41">
-        <v>140.18100000000001</v>
+        <v>304.53500000000003</v>
       </c>
       <c r="C41">
         <v>0.01</v>
       </c>
       <c r="D41">
-        <v>2.80362</v>
+        <v>6.0907000000000009</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -16132,13 +16221,13 @@
         <v>1.23</v>
       </c>
       <c r="B42">
-        <v>139.38999999999999</v>
+        <v>300.00099999999998</v>
       </c>
       <c r="C42">
         <v>1.025E-2</v>
       </c>
       <c r="D42">
-        <v>2.7877999999999998</v>
+        <v>6.0000199999999992</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -16146,13 +16235,13 @@
         <v>1.26</v>
       </c>
       <c r="B43">
-        <v>140.24600000000001</v>
+        <v>290.09800000000001</v>
       </c>
       <c r="C43">
         <v>1.0500000000000001E-2</v>
       </c>
       <c r="D43">
-        <v>2.8049200000000001</v>
+        <v>5.8019600000000002</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -16160,13 +16249,13 @@
         <v>1.29</v>
       </c>
       <c r="B44">
-        <v>139.94200000000001</v>
+        <v>267.255</v>
       </c>
       <c r="C44">
         <v>1.0749999999999999E-2</v>
       </c>
       <c r="D44">
-        <v>2.7988400000000002</v>
+        <v>5.3451000000000004</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -16174,13 +16263,13 @@
         <v>1.32</v>
       </c>
       <c r="B45">
-        <v>139.006</v>
+        <v>246.333</v>
       </c>
       <c r="C45">
         <v>1.0999999999999999E-2</v>
       </c>
       <c r="D45">
-        <v>2.7801200000000001</v>
+        <v>4.92666</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -16188,13 +16277,13 @@
         <v>1.35</v>
       </c>
       <c r="B46">
-        <v>139.524</v>
+        <v>221.51599999999999</v>
       </c>
       <c r="C46">
         <v>1.125E-2</v>
       </c>
       <c r="D46">
-        <v>2.7904800000000001</v>
+        <v>4.43032</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -16202,13 +16291,13 @@
         <v>1.38</v>
       </c>
       <c r="B47">
-        <v>139.63300000000001</v>
+        <v>162.417</v>
       </c>
       <c r="C47">
         <v>1.15E-2</v>
       </c>
       <c r="D47">
-        <v>2.7926600000000001</v>
+        <v>3.2483399999999998</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -16216,13 +16305,13 @@
         <v>1.41</v>
       </c>
       <c r="B48">
-        <v>138.571</v>
+        <v>106.254</v>
       </c>
       <c r="C48">
         <v>1.175E-2</v>
       </c>
       <c r="D48">
-        <v>2.77142</v>
+        <v>2.1250800000000001</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -16230,13 +16319,13 @@
         <v>1.44</v>
       </c>
       <c r="B49">
-        <v>136.66999999999999</v>
+        <v>83.496700000000004</v>
       </c>
       <c r="C49">
         <v>1.2E-2</v>
       </c>
       <c r="D49">
-        <v>2.7334000000000001</v>
+        <v>1.669934</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -16244,13 +16333,13 @@
         <v>1.47</v>
       </c>
       <c r="B50">
-        <v>127.712</v>
+        <v>77.949399999999997</v>
       </c>
       <c r="C50">
         <v>1.225E-2</v>
       </c>
       <c r="D50">
-        <v>2.5542400000000001</v>
+        <v>1.558988</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -16258,13 +16347,13 @@
         <v>1.5</v>
       </c>
       <c r="B51">
-        <v>126.15600000000001</v>
+        <v>74.353300000000004</v>
       </c>
       <c r="C51">
         <v>1.2500000000000001E-2</v>
       </c>
       <c r="D51">
-        <v>2.52312</v>
+        <v>1.487066</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -16272,13 +16361,13 @@
         <v>1.53</v>
       </c>
       <c r="B52">
-        <v>125.85599999999999</v>
+        <v>73.560699999999997</v>
       </c>
       <c r="C52">
         <v>1.2749999999999999E-2</v>
       </c>
       <c r="D52">
-        <v>2.5171199999999998</v>
+        <v>1.471214</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -16286,13 +16375,13 @@
         <v>1.56</v>
       </c>
       <c r="B53">
-        <v>126.399</v>
+        <v>73.994399999999999</v>
       </c>
       <c r="C53">
         <v>1.2999999999999999E-2</v>
       </c>
       <c r="D53">
-        <v>2.5279799999999999</v>
+        <v>1.4798880000000001</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -16300,13 +16389,13 @@
         <v>1.59</v>
       </c>
       <c r="B54">
-        <v>127.67100000000001</v>
+        <v>74.8613</v>
       </c>
       <c r="C54">
         <v>1.325E-2</v>
       </c>
       <c r="D54">
-        <v>2.55342</v>
+        <v>1.4972259999999999</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -16314,13 +16403,13 @@
         <v>1.62</v>
       </c>
       <c r="B55">
-        <v>129.416</v>
+        <v>75.884699999999995</v>
       </c>
       <c r="C55">
         <v>1.35E-2</v>
       </c>
       <c r="D55">
-        <v>2.58832</v>
+        <v>1.5176940000000001</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -16328,13 +16417,13 @@
         <v>1.65</v>
       </c>
       <c r="B56">
-        <v>128.15799999999999</v>
+        <v>77.0488</v>
       </c>
       <c r="C56">
         <v>1.375E-2</v>
       </c>
       <c r="D56">
-        <v>2.5631599999999999</v>
+        <v>1.5409759999999999</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -16342,13 +16431,13 @@
         <v>1.68</v>
       </c>
       <c r="B57">
-        <v>128.184</v>
+        <v>78.283199999999994</v>
       </c>
       <c r="C57">
         <v>1.4E-2</v>
       </c>
       <c r="D57">
-        <v>2.5636800000000002</v>
+        <v>1.5656639999999999</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -16356,13 +16445,13 @@
         <v>1.71</v>
       </c>
       <c r="B58">
-        <v>130.28700000000001</v>
+        <v>79.549700000000001</v>
       </c>
       <c r="C58">
         <v>1.4250000000000001E-2</v>
       </c>
       <c r="D58">
-        <v>2.6057399999999999</v>
+        <v>1.590994</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -16370,13 +16459,13 @@
         <v>1.74</v>
       </c>
       <c r="B59">
-        <v>132.46899999999999</v>
+        <v>80.840900000000005</v>
       </c>
       <c r="C59">
         <v>1.4500000000000001E-2</v>
       </c>
       <c r="D59">
-        <v>2.6493799999999998</v>
+        <v>1.6168180000000001</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -16384,13 +16473,13 @@
         <v>1.77</v>
       </c>
       <c r="B60">
-        <v>134.584</v>
+        <v>82.057599999999994</v>
       </c>
       <c r="C60">
         <v>1.4749999999999999E-2</v>
       </c>
       <c r="D60">
-        <v>2.6916799999999999</v>
+        <v>1.6411519999999999</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -16398,13 +16487,13 @@
         <v>1.8</v>
       </c>
       <c r="B61">
-        <v>136.53899999999999</v>
+        <v>82.982500000000002</v>
       </c>
       <c r="C61">
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="D61">
-        <v>2.7307800000000002</v>
+        <v>1.6596500000000001</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -16412,13 +16501,13 @@
         <v>1.83</v>
       </c>
       <c r="B62">
-        <v>138.71899999999999</v>
+        <v>84.191699999999997</v>
       </c>
       <c r="C62">
         <v>1.525E-2</v>
       </c>
       <c r="D62">
-        <v>2.7743799999999998</v>
+        <v>1.6838340000000001</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -16426,13 +16515,13 @@
         <v>1.86</v>
       </c>
       <c r="B63">
-        <v>140.79499999999999</v>
+        <v>85.337699999999998</v>
       </c>
       <c r="C63">
         <v>1.55E-2</v>
       </c>
       <c r="D63">
-        <v>2.8159000000000001</v>
+        <v>1.7067540000000001</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -16440,13 +16529,13 @@
         <v>1.89</v>
       </c>
       <c r="B64">
-        <v>142.48500000000001</v>
+        <v>86.386600000000001</v>
       </c>
       <c r="C64">
         <v>1.575E-2</v>
       </c>
       <c r="D64">
-        <v>2.8496999999999999</v>
+        <v>1.727732</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -16454,13 +16543,13 @@
         <v>1.92</v>
       </c>
       <c r="B65">
-        <v>144.15600000000001</v>
+        <v>87.473200000000006</v>
       </c>
       <c r="C65">
         <v>1.6E-2</v>
       </c>
       <c r="D65">
-        <v>2.8831199999999999</v>
+        <v>1.7494639999999999</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -16468,13 +16557,13 @@
         <v>1.95</v>
       </c>
       <c r="B66">
-        <v>146.04900000000001</v>
+        <v>88.037899999999993</v>
       </c>
       <c r="C66">
         <v>1.6250000000000001E-2</v>
       </c>
       <c r="D66">
-        <v>2.9209800000000001</v>
+        <v>1.760758</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -16482,13 +16571,13 @@
         <v>1.98</v>
       </c>
       <c r="B67">
-        <v>148.11199999999999</v>
+        <v>89.070899999999995</v>
       </c>
       <c r="C67">
         <v>1.6500000000000001E-2</v>
       </c>
       <c r="D67">
-        <v>2.96224</v>
+        <v>1.7814179999999999</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -16496,13 +16585,13 @@
         <v>2.0099999999999998</v>
       </c>
       <c r="B68">
-        <v>150.15199999999999</v>
+        <v>90.176699999999997</v>
       </c>
       <c r="C68">
         <v>1.6750000000000001E-2</v>
       </c>
       <c r="D68">
-        <v>3.0030399999999999</v>
+        <v>1.803534</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -16510,13 +16599,13 @@
         <v>2.04</v>
       </c>
       <c r="B69">
-        <v>152.10599999999999</v>
+        <v>91.349100000000007</v>
       </c>
       <c r="C69">
         <v>1.7000000000000001E-2</v>
       </c>
       <c r="D69">
-        <v>3.0421200000000002</v>
+        <v>1.8269820000000001</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -16524,13 +16613,13 @@
         <v>2.0699999999999998</v>
       </c>
       <c r="B70">
-        <v>152.822</v>
+        <v>92.460599999999999</v>
       </c>
       <c r="C70">
         <v>1.7250000000000001E-2</v>
       </c>
       <c r="D70">
-        <v>3.0564399999999998</v>
+        <v>1.8492120000000001</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -16538,13 +16627,13 @@
         <v>2.1</v>
       </c>
       <c r="B71">
-        <v>154.624</v>
+        <v>93.305899999999994</v>
       </c>
       <c r="C71">
         <v>1.7500000000000002E-2</v>
       </c>
       <c r="D71">
-        <v>3.0924800000000001</v>
+        <v>1.8661179999999999</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -16552,13 +16641,13 @@
         <v>2.13</v>
       </c>
       <c r="B72">
-        <v>154.79900000000001</v>
+        <v>94.487799999999993</v>
       </c>
       <c r="C72">
         <v>1.7749999999999998E-2</v>
       </c>
       <c r="D72">
-        <v>3.09598</v>
+        <v>1.889756</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -16566,13 +16655,13 @@
         <v>2.16</v>
       </c>
       <c r="B73">
-        <v>154.51400000000001</v>
+        <v>95.712299999999999</v>
       </c>
       <c r="C73">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="D73">
-        <v>3.0902799999999999</v>
+        <v>1.9142459999999999</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -16580,13 +16669,13 @@
         <v>2.19</v>
       </c>
       <c r="B74">
-        <v>147.59399999999999</v>
+        <v>95.640199999999993</v>
       </c>
       <c r="C74">
         <v>1.8249999999999999E-2</v>
       </c>
       <c r="D74">
-        <v>2.9518800000000001</v>
+        <v>1.9128039999999999</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -16594,13 +16683,13 @@
         <v>2.2200000000000002</v>
       </c>
       <c r="B75">
-        <v>146.50399999999999</v>
+        <v>96.690399999999997</v>
       </c>
       <c r="C75">
         <v>1.8499999999999999E-2</v>
       </c>
       <c r="D75">
-        <v>2.9300799999999998</v>
+        <v>1.933808</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -16608,13 +16697,13 @@
         <v>2.25</v>
       </c>
       <c r="B76">
-        <v>143.75700000000001</v>
+        <v>97.437200000000004</v>
       </c>
       <c r="C76">
         <v>1.8749999999999999E-2</v>
       </c>
       <c r="D76">
-        <v>2.87514</v>
+        <v>1.948744</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -16622,13 +16711,13 @@
         <v>2.2799999999999998</v>
       </c>
       <c r="B77">
-        <v>145.08799999999999</v>
+        <v>98.257999999999996</v>
       </c>
       <c r="C77">
         <v>1.9E-2</v>
       </c>
       <c r="D77">
-        <v>2.9017599999999999</v>
+        <v>1.96516</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -16636,13 +16725,13 @@
         <v>2.31</v>
       </c>
       <c r="B78">
-        <v>146.87</v>
+        <v>99.496300000000005</v>
       </c>
       <c r="C78">
         <v>1.925E-2</v>
       </c>
       <c r="D78">
-        <v>2.9373999999999998</v>
+        <v>1.9899260000000001</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -16650,13 +16739,13 @@
         <v>2.34</v>
       </c>
       <c r="B79">
-        <v>148.63499999999999</v>
+        <v>100.11499999999999</v>
       </c>
       <c r="C79">
         <v>1.95E-2</v>
       </c>
       <c r="D79">
-        <v>2.9727000000000001</v>
+        <v>2.0023</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -16664,13 +16753,13 @@
         <v>2.37</v>
       </c>
       <c r="B80">
-        <v>150.43799999999999</v>
+        <v>101.30200000000001</v>
       </c>
       <c r="C80">
         <v>1.975E-2</v>
       </c>
       <c r="D80">
-        <v>3.0087600000000001</v>
+        <v>2.0260400000000001</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -16678,13 +16767,13 @@
         <v>2.4</v>
       </c>
       <c r="B81">
-        <v>152.27699999999999</v>
+        <v>102.367</v>
       </c>
       <c r="C81">
         <v>0.02</v>
       </c>
       <c r="D81">
-        <v>3.0455399999999999</v>
+        <v>2.0473400000000002</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -16692,13 +16781,13 @@
         <v>2.4300000000000002</v>
       </c>
       <c r="B82">
-        <v>154.12</v>
+        <v>103.485</v>
       </c>
       <c r="C82">
         <v>2.0250000000000001E-2</v>
       </c>
       <c r="D82">
-        <v>3.0823999999999998</v>
+        <v>2.0697000000000001</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -16706,13 +16795,13 @@
         <v>2.46</v>
       </c>
       <c r="B83">
-        <v>155.97900000000001</v>
+        <v>104.413</v>
       </c>
       <c r="C83">
         <v>2.0500000000000001E-2</v>
       </c>
       <c r="D83">
-        <v>3.11958</v>
+        <v>2.08826</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -16720,13 +16809,13 @@
         <v>2.4900000000000002</v>
       </c>
       <c r="B84">
-        <v>157.69999999999999</v>
+        <v>105.587</v>
       </c>
       <c r="C84">
         <v>2.0750000000000001E-2</v>
       </c>
       <c r="D84">
-        <v>3.1539999999999999</v>
+        <v>2.1117400000000002</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -16734,13 +16823,13 @@
         <v>2.52</v>
       </c>
       <c r="B85">
-        <v>159.36500000000001</v>
+        <v>106.76600000000001</v>
       </c>
       <c r="C85">
         <v>2.1000000000000001E-2</v>
       </c>
       <c r="D85">
-        <v>3.1873</v>
+        <v>2.1353200000000001</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -16748,13 +16837,13 @@
         <v>2.5499999999999998</v>
       </c>
       <c r="B86">
-        <v>161.209</v>
+        <v>107.33</v>
       </c>
       <c r="C86">
         <v>2.1250000000000002E-2</v>
       </c>
       <c r="D86">
-        <v>3.22418</v>
+        <v>2.1465999999999998</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -16762,13 +16851,13 @@
         <v>2.58</v>
       </c>
       <c r="B87">
-        <v>163.06399999999999</v>
+        <v>108.29</v>
       </c>
       <c r="C87">
         <v>2.1499999999999998E-2</v>
       </c>
       <c r="D87">
-        <v>3.2612800000000002</v>
+        <v>2.1657999999999999</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -16776,13 +16865,13 @@
         <v>2.61</v>
       </c>
       <c r="B88">
-        <v>164.90700000000001</v>
+        <v>109.471</v>
       </c>
       <c r="C88">
         <v>2.1749999999999999E-2</v>
       </c>
       <c r="D88">
-        <v>3.2981400000000001</v>
+        <v>2.1894200000000001</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -16790,13 +16879,13 @@
         <v>2.64</v>
       </c>
       <c r="B89">
-        <v>166.191</v>
+        <v>110.64700000000001</v>
       </c>
       <c r="C89">
         <v>2.1999999999999999E-2</v>
       </c>
       <c r="D89">
-        <v>3.32382</v>
+        <v>2.2129400000000001</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -16804,13 +16893,13 @@
         <v>2.67</v>
       </c>
       <c r="B90">
-        <v>166.87200000000001</v>
+        <v>111.84699999999999</v>
       </c>
       <c r="C90">
         <v>2.2249999999999999E-2</v>
       </c>
       <c r="D90">
-        <v>3.33744</v>
+        <v>2.2369400000000002</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -16818,13 +16907,13 @@
         <v>2.7</v>
       </c>
       <c r="B91">
-        <v>168.678</v>
+        <v>113.03100000000001</v>
       </c>
       <c r="C91">
         <v>2.2499999999999999E-2</v>
       </c>
       <c r="D91">
-        <v>3.3735599999999999</v>
+        <v>2.2606199999999999</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -16832,13 +16921,13 @@
         <v>2.73</v>
       </c>
       <c r="B92">
-        <v>170.51300000000001</v>
+        <v>114.20399999999999</v>
       </c>
       <c r="C92">
         <v>2.2749999999999999E-2</v>
       </c>
       <c r="D92">
-        <v>3.4102600000000001</v>
+        <v>2.2840799999999999</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -16846,13 +16935,13 @@
         <v>2.76</v>
       </c>
       <c r="B93">
-        <v>172.352</v>
+        <v>115.303</v>
       </c>
       <c r="C93">
         <v>2.3E-2</v>
       </c>
       <c r="D93">
-        <v>3.4470399999999999</v>
+        <v>2.30606</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -16860,13 +16949,13 @@
         <v>2.79</v>
       </c>
       <c r="B94">
-        <v>174.16900000000001</v>
+        <v>115.983</v>
       </c>
       <c r="C94">
         <v>2.325E-2</v>
       </c>
       <c r="D94">
-        <v>3.4833799999999999</v>
+        <v>2.3196599999999998</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -16874,13 +16963,13 @@
         <v>2.82</v>
       </c>
       <c r="B95">
-        <v>175.983</v>
+        <v>117.15900000000001</v>
       </c>
       <c r="C95">
         <v>2.35E-2</v>
       </c>
       <c r="D95">
-        <v>3.51966</v>
+        <v>2.3431799999999998</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -16888,13 +16977,13 @@
         <v>2.85</v>
       </c>
       <c r="B96">
-        <v>177.65299999999999</v>
+        <v>118.33499999999999</v>
       </c>
       <c r="C96">
         <v>2.375E-2</v>
       </c>
       <c r="D96">
-        <v>3.5530599999999999</v>
+        <v>2.3666999999999998</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -16902,13 +16991,13 @@
         <v>2.88</v>
       </c>
       <c r="B97">
-        <v>179.39099999999999</v>
+        <v>119.40300000000001</v>
       </c>
       <c r="C97">
         <v>2.4E-2</v>
       </c>
       <c r="D97">
-        <v>3.5878199999999998</v>
+        <v>2.3880599999999998</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -16916,13 +17005,13 @@
         <v>2.91</v>
       </c>
       <c r="B98">
-        <v>181.15</v>
+        <v>120.548</v>
       </c>
       <c r="C98">
         <v>2.4250000000000001E-2</v>
       </c>
       <c r="D98">
-        <v>3.6230000000000002</v>
+        <v>2.4109600000000002</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -16930,13 +17019,13 @@
         <v>2.94</v>
       </c>
       <c r="B99">
-        <v>182.911</v>
+        <v>121.732</v>
       </c>
       <c r="C99">
         <v>2.4500000000000001E-2</v>
       </c>
       <c r="D99">
-        <v>3.65822</v>
+        <v>2.4346399999999999</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -16944,13 +17033,13 @@
         <v>2.97</v>
       </c>
       <c r="B100">
-        <v>184.697</v>
+        <v>122.911</v>
       </c>
       <c r="C100">
         <v>2.4750000000000001E-2</v>
       </c>
       <c r="D100">
-        <v>3.69394</v>
+        <v>2.4582199999999998</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -16958,13 +17047,13 @@
         <v>2.9849999999999999</v>
       </c>
       <c r="B101">
-        <v>185.59800000000001</v>
+        <v>123.51600000000001</v>
       </c>
       <c r="C101">
         <v>2.4875000000000001E-2</v>
       </c>
       <c r="D101">
-        <v>3.7119599999999999</v>
+        <v>2.4703200000000001</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -16972,13 +17061,13 @@
         <v>2.9925000000000002</v>
       </c>
       <c r="B102">
-        <v>186.02799999999999</v>
+        <v>123.803</v>
       </c>
       <c r="C102">
         <v>2.4937500000000001E-2</v>
       </c>
       <c r="D102">
-        <v>3.7205599999999999</v>
+        <v>2.4760599999999999</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -16986,13 +17075,13 @@
         <v>2.9954999999999998</v>
       </c>
       <c r="B103">
-        <v>186.17599999999999</v>
+        <v>123.89700000000001</v>
       </c>
       <c r="C103">
         <v>2.4962499999999999E-2</v>
       </c>
       <c r="D103">
-        <v>3.7235200000000002</v>
+        <v>2.4779399999999998</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -17000,13 +17089,13 @@
         <v>2.9977</v>
       </c>
       <c r="B104">
-        <v>186.22</v>
+        <v>123.889</v>
       </c>
       <c r="C104">
         <v>2.4980833333333341E-2</v>
       </c>
       <c r="D104">
-        <v>3.7244000000000002</v>
+        <v>2.4777800000000001</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -17014,13 +17103,13 @@
         <v>3</v>
       </c>
       <c r="B105">
-        <v>186.268</v>
+        <v>123.867</v>
       </c>
       <c r="C105">
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="D105">
-        <v>3.7253599999999998</v>
+        <v>2.4773399999999999</v>
       </c>
     </row>
   </sheetData>
@@ -17039,20 +17128,23 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="20"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" s="3" t="s">
+      <c r="A1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
         <v>19</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -17060,19 +17152,19 @@
         <v>0.03</v>
       </c>
       <c r="B2">
-        <v>60.177500000000002</v>
+        <v>57.476900000000001</v>
       </c>
       <c r="C2">
         <v>2.5000000000000001E-4</v>
       </c>
       <c r="D2">
-        <v>1.2035499999999999</v>
+        <v>1.1495379999999999</v>
       </c>
       <c r="F2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G2">
-        <v>15.62358</v>
+        <v>15.9533</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -17080,19 +17172,19 @@
         <v>0.06</v>
       </c>
       <c r="B3">
-        <v>120.355</v>
+        <v>114.95399999999999</v>
       </c>
       <c r="C3">
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="D3">
-        <v>2.4070999999999998</v>
+        <v>2.29908</v>
       </c>
       <c r="F3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G3">
-        <v>4712.7343030303027</v>
+        <v>4505.9669818181819</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -17100,13 +17192,13 @@
         <v>0.09</v>
       </c>
       <c r="B4">
-        <v>180.53200000000001</v>
+        <v>172.43100000000001</v>
       </c>
       <c r="C4">
         <v>7.5000000000000002E-4</v>
       </c>
       <c r="D4">
-        <v>3.6106400000000001</v>
+        <v>3.44862</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -17114,13 +17206,13 @@
         <v>0.12</v>
       </c>
       <c r="B5">
-        <v>240.71</v>
+        <v>229.90799999999999</v>
       </c>
       <c r="C5">
         <v>1E-3</v>
       </c>
       <c r="D5">
-        <v>4.8141999999999996</v>
+        <v>4.59816</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -17128,13 +17220,13 @@
         <v>0.15</v>
       </c>
       <c r="B6">
-        <v>300.887</v>
+        <v>287.38400000000001</v>
       </c>
       <c r="C6">
         <v>1.25E-3</v>
       </c>
       <c r="D6">
-        <v>6.0177399999999999</v>
+        <v>5.7476799999999999</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -17142,13 +17234,13 @@
         <v>0.18</v>
       </c>
       <c r="B7">
-        <v>360.96300000000002</v>
+        <v>344.80900000000003</v>
       </c>
       <c r="C7">
         <v>1.5E-3</v>
       </c>
       <c r="D7">
-        <v>7.2192600000000002</v>
+        <v>6.8961800000000002</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -17156,13 +17248,13 @@
         <v>0.21</v>
       </c>
       <c r="B8">
-        <v>420.24099999999999</v>
+        <v>401.56400000000002</v>
       </c>
       <c r="C8">
         <v>1.75E-3</v>
       </c>
       <c r="D8">
-        <v>8.4048199999999991</v>
+        <v>8.0312800000000006</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -17170,13 +17262,13 @@
         <v>0.24</v>
       </c>
       <c r="B9">
-        <v>477.90199999999999</v>
+        <v>456.95</v>
       </c>
       <c r="C9">
         <v>2E-3</v>
       </c>
       <c r="D9">
-        <v>9.5580400000000001</v>
+        <v>9.1389999999999993</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -17184,13 +17276,13 @@
         <v>0.27</v>
       </c>
       <c r="B10">
-        <v>533.52800000000002</v>
+        <v>509.69400000000002</v>
       </c>
       <c r="C10">
         <v>2.2499999999999998E-3</v>
       </c>
       <c r="D10">
-        <v>10.67056</v>
+        <v>10.19388</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -17198,13 +17290,13 @@
         <v>0.3</v>
       </c>
       <c r="B11">
-        <v>587.09799999999996</v>
+        <v>561.40899999999999</v>
       </c>
       <c r="C11">
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="D11">
-        <v>11.741960000000001</v>
+        <v>11.22818</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -17212,13 +17304,13 @@
         <v>0.33</v>
       </c>
       <c r="B12">
-        <v>638.60599999999999</v>
+        <v>611.45100000000002</v>
       </c>
       <c r="C12">
         <v>2.7499999999999998E-3</v>
       </c>
       <c r="D12">
-        <v>12.772119999999999</v>
+        <v>12.22902</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -17226,13 +17318,13 @@
         <v>0.36</v>
       </c>
       <c r="B13">
-        <v>687.64400000000001</v>
+        <v>658.43</v>
       </c>
       <c r="C13">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="D13">
-        <v>13.752879999999999</v>
+        <v>13.1686</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -17240,13 +17332,13 @@
         <v>0.39</v>
       </c>
       <c r="B14">
-        <v>715.89200000000005</v>
+        <v>682.69500000000005</v>
       </c>
       <c r="C14">
         <v>3.2500000000000012E-3</v>
       </c>
       <c r="D14">
-        <v>14.31784</v>
+        <v>13.6539</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -17254,13 +17346,13 @@
         <v>0.42</v>
       </c>
       <c r="B15">
-        <v>729.28300000000002</v>
+        <v>701.67</v>
       </c>
       <c r="C15">
         <v>3.5000000000000001E-3</v>
       </c>
       <c r="D15">
-        <v>14.585660000000001</v>
+        <v>14.0334</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -17268,13 +17360,13 @@
         <v>0.45</v>
       </c>
       <c r="B16">
-        <v>729.06</v>
+        <v>703.101</v>
       </c>
       <c r="C16">
         <v>3.7499999999999999E-3</v>
       </c>
       <c r="D16">
-        <v>14.581200000000001</v>
+        <v>14.06202</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -17282,13 +17374,13 @@
         <v>0.48</v>
       </c>
       <c r="B17">
-        <v>733.13400000000001</v>
+        <v>705.42200000000003</v>
       </c>
       <c r="C17">
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="D17">
-        <v>14.66268</v>
+        <v>14.10844</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -17296,13 +17388,13 @@
         <v>0.51</v>
       </c>
       <c r="B18">
-        <v>744.28700000000003</v>
+        <v>714.25400000000002</v>
       </c>
       <c r="C18">
         <v>4.2500000000000003E-3</v>
       </c>
       <c r="D18">
-        <v>14.88574</v>
+        <v>14.285080000000001</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -17310,13 +17402,13 @@
         <v>0.54</v>
       </c>
       <c r="B19">
-        <v>756.25300000000004</v>
+        <v>726.947</v>
       </c>
       <c r="C19">
         <v>4.5000000000000014E-3</v>
       </c>
       <c r="D19">
-        <v>15.12506</v>
+        <v>14.53894</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -17324,13 +17416,13 @@
         <v>0.56999999999999995</v>
       </c>
       <c r="B20">
-        <v>769.11900000000003</v>
+        <v>741.471</v>
       </c>
       <c r="C20">
         <v>4.7499999999999999E-3</v>
       </c>
       <c r="D20">
-        <v>15.382379999999999</v>
+        <v>14.829420000000001</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -17338,13 +17430,13 @@
         <v>0.6</v>
       </c>
       <c r="B21">
-        <v>781.17899999999997</v>
+        <v>758.43799999999999</v>
       </c>
       <c r="C21">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="D21">
-        <v>15.62358</v>
+        <v>15.168760000000001</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -17352,13 +17444,13 @@
         <v>0.63</v>
       </c>
       <c r="B22">
-        <v>763.24400000000003</v>
+        <v>775.32299999999998</v>
       </c>
       <c r="C22">
         <v>5.2500000000000003E-3</v>
       </c>
       <c r="D22">
-        <v>15.26488</v>
+        <v>15.506460000000001</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -17366,13 +17458,13 @@
         <v>0.66</v>
       </c>
       <c r="B23">
-        <v>278.20699999999999</v>
+        <v>788.81799999999998</v>
       </c>
       <c r="C23">
         <v>5.5000000000000014E-3</v>
       </c>
       <c r="D23">
-        <v>5.5641400000000001</v>
+        <v>15.77636</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -17380,13 +17472,13 @@
         <v>0.69</v>
       </c>
       <c r="B24">
-        <v>238.905</v>
+        <v>797.66499999999996</v>
       </c>
       <c r="C24">
         <v>5.7499999999999999E-3</v>
       </c>
       <c r="D24">
-        <v>4.7781000000000002</v>
+        <v>15.9533</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -17394,13 +17486,13 @@
         <v>0.72</v>
       </c>
       <c r="B25">
-        <v>240.13</v>
+        <v>780.86699999999996</v>
       </c>
       <c r="C25">
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="D25">
-        <v>4.8026</v>
+        <v>15.61734</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -17408,13 +17500,13 @@
         <v>0.75</v>
       </c>
       <c r="B26">
-        <v>243.369</v>
+        <v>315.98700000000002</v>
       </c>
       <c r="C26">
         <v>6.2500000000000003E-3</v>
       </c>
       <c r="D26">
-        <v>4.8673799999999998</v>
+        <v>6.3197400000000004</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -17422,13 +17514,13 @@
         <v>0.78</v>
       </c>
       <c r="B27">
-        <v>247.97200000000001</v>
+        <v>270.65899999999999</v>
       </c>
       <c r="C27">
         <v>6.5000000000000006E-3</v>
       </c>
       <c r="D27">
-        <v>4.9594399999999998</v>
+        <v>5.4131799999999997</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -17436,13 +17528,13 @@
         <v>0.81</v>
       </c>
       <c r="B28">
-        <v>253.108</v>
+        <v>272.94</v>
       </c>
       <c r="C28">
         <v>6.7500000000000008E-3</v>
       </c>
       <c r="D28">
-        <v>5.0621600000000004</v>
+        <v>5.4588000000000001</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -17450,13 +17542,13 @@
         <v>0.84</v>
       </c>
       <c r="B29">
-        <v>258.18099999999998</v>
+        <v>278.59300000000002</v>
       </c>
       <c r="C29">
         <v>7.0000000000000001E-3</v>
       </c>
       <c r="D29">
-        <v>5.1636199999999999</v>
+        <v>5.57186</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -17464,13 +17556,13 @@
         <v>0.87</v>
       </c>
       <c r="B30">
-        <v>263.77999999999997</v>
+        <v>285.30500000000001</v>
       </c>
       <c r="C30">
         <v>7.2500000000000004E-3</v>
       </c>
       <c r="D30">
-        <v>5.2755999999999998</v>
+        <v>5.7061000000000002</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -17478,13 +17570,13 @@
         <v>0.9</v>
       </c>
       <c r="B31">
-        <v>269.03300000000002</v>
+        <v>291.88799999999998</v>
       </c>
       <c r="C31">
         <v>7.5000000000000006E-3</v>
       </c>
       <c r="D31">
-        <v>5.3806600000000007</v>
+        <v>5.8377599999999994</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -17492,13 +17584,13 @@
         <v>0.93</v>
       </c>
       <c r="B32">
-        <v>274.22899999999998</v>
+        <v>296.21600000000001</v>
       </c>
       <c r="C32">
         <v>7.7500000000000008E-3</v>
       </c>
       <c r="D32">
-        <v>5.4845799999999993</v>
+        <v>5.9243199999999998</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -17506,13 +17598,13 @@
         <v>0.96</v>
       </c>
       <c r="B33">
-        <v>280.85599999999999</v>
+        <v>302.62</v>
       </c>
       <c r="C33">
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="D33">
-        <v>5.6171199999999999</v>
+        <v>6.0523999999999996</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -17520,13 +17612,13 @@
         <v>0.99</v>
       </c>
       <c r="B34">
-        <v>287.64800000000002</v>
+        <v>305.46800000000002</v>
       </c>
       <c r="C34">
         <v>8.2500000000000004E-3</v>
       </c>
       <c r="D34">
-        <v>5.7529600000000007</v>
+        <v>6.1093600000000006</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -17534,13 +17626,13 @@
         <v>1.02</v>
       </c>
       <c r="B35">
-        <v>293.71800000000002</v>
+        <v>305.58999999999997</v>
       </c>
       <c r="C35">
         <v>8.5000000000000006E-3</v>
       </c>
       <c r="D35">
-        <v>5.8743600000000002</v>
+        <v>6.1117999999999997</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -17548,13 +17640,13 @@
         <v>1.05</v>
       </c>
       <c r="B36">
-        <v>297.71100000000001</v>
+        <v>298.69799999999998</v>
       </c>
       <c r="C36">
         <v>8.7500000000000008E-3</v>
       </c>
       <c r="D36">
-        <v>5.9542200000000003</v>
+        <v>5.9739599999999999</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -17562,13 +17654,13 @@
         <v>1.08</v>
       </c>
       <c r="B37">
-        <v>297.93</v>
+        <v>289.40600000000001</v>
       </c>
       <c r="C37">
         <v>9.0000000000000011E-3</v>
       </c>
       <c r="D37">
-        <v>5.9586000000000006</v>
+        <v>5.7881200000000002</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -17576,13 +17668,13 @@
         <v>1.1100000000000001</v>
       </c>
       <c r="B38">
-        <v>300.12700000000001</v>
+        <v>278.959</v>
       </c>
       <c r="C38">
         <v>9.2500000000000013E-3</v>
       </c>
       <c r="D38">
-        <v>6.0025399999999998</v>
+        <v>5.57918</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -17590,13 +17682,13 @@
         <v>1.1399999999999999</v>
       </c>
       <c r="B39">
-        <v>302.33</v>
+        <v>264.10899999999998</v>
       </c>
       <c r="C39">
         <v>9.4999999999999998E-3</v>
       </c>
       <c r="D39">
-        <v>6.0465999999999998</v>
+        <v>5.2821799999999994</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -17604,13 +17696,13 @@
         <v>1.17</v>
       </c>
       <c r="B40">
-        <v>304.06299999999999</v>
+        <v>244.52799999999999</v>
       </c>
       <c r="C40">
         <v>9.75E-3</v>
       </c>
       <c r="D40">
-        <v>6.0812599999999994</v>
+        <v>4.8905599999999998</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -17618,13 +17710,13 @@
         <v>1.2</v>
       </c>
       <c r="B41">
-        <v>304.53500000000003</v>
+        <v>223.06700000000001</v>
       </c>
       <c r="C41">
         <v>0.01</v>
       </c>
       <c r="D41">
-        <v>6.0907000000000009</v>
+        <v>4.4613399999999999</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -17632,13 +17724,13 @@
         <v>1.23</v>
       </c>
       <c r="B42">
-        <v>300.00099999999998</v>
+        <v>193.10300000000001</v>
       </c>
       <c r="C42">
         <v>1.025E-2</v>
       </c>
       <c r="D42">
-        <v>6.0000199999999992</v>
+        <v>3.86206</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -17646,13 +17738,13 @@
         <v>1.26</v>
       </c>
       <c r="B43">
-        <v>290.09800000000001</v>
+        <v>164.86099999999999</v>
       </c>
       <c r="C43">
         <v>1.0500000000000001E-2</v>
       </c>
       <c r="D43">
-        <v>5.8019600000000002</v>
+        <v>3.2972199999999998</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -17660,13 +17752,13 @@
         <v>1.29</v>
       </c>
       <c r="B44">
-        <v>267.255</v>
+        <v>137.887</v>
       </c>
       <c r="C44">
         <v>1.0749999999999999E-2</v>
       </c>
       <c r="D44">
-        <v>5.3451000000000004</v>
+        <v>2.7577400000000001</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -17674,13 +17766,13 @@
         <v>1.32</v>
       </c>
       <c r="B45">
-        <v>246.333</v>
+        <v>97.439800000000005</v>
       </c>
       <c r="C45">
         <v>1.0999999999999999E-2</v>
       </c>
       <c r="D45">
-        <v>4.92666</v>
+        <v>1.948796</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -17688,13 +17780,13 @@
         <v>1.35</v>
       </c>
       <c r="B46">
-        <v>221.51599999999999</v>
+        <v>68.9499</v>
       </c>
       <c r="C46">
         <v>1.125E-2</v>
       </c>
       <c r="D46">
-        <v>4.43032</v>
+        <v>1.3789979999999999</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -17702,13 +17794,13 @@
         <v>1.38</v>
       </c>
       <c r="B47">
-        <v>162.417</v>
+        <v>68.314599999999999</v>
       </c>
       <c r="C47">
         <v>1.15E-2</v>
       </c>
       <c r="D47">
-        <v>3.2483399999999998</v>
+        <v>1.3662920000000001</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -17716,13 +17808,13 @@
         <v>1.41</v>
       </c>
       <c r="B48">
-        <v>106.254</v>
+        <v>68.534099999999995</v>
       </c>
       <c r="C48">
         <v>1.175E-2</v>
       </c>
       <c r="D48">
-        <v>2.1250800000000001</v>
+        <v>1.370682</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -17730,13 +17822,13 @@
         <v>1.44</v>
       </c>
       <c r="B49">
-        <v>83.496700000000004</v>
+        <v>69.478099999999998</v>
       </c>
       <c r="C49">
         <v>1.2E-2</v>
       </c>
       <c r="D49">
-        <v>1.669934</v>
+        <v>1.389562</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -17744,13 +17836,13 @@
         <v>1.47</v>
       </c>
       <c r="B50">
-        <v>77.949399999999997</v>
+        <v>70.548000000000002</v>
       </c>
       <c r="C50">
         <v>1.225E-2</v>
       </c>
       <c r="D50">
-        <v>1.558988</v>
+        <v>1.41096</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -17758,13 +17850,13 @@
         <v>1.5</v>
       </c>
       <c r="B51">
-        <v>74.353300000000004</v>
+        <v>71.649299999999997</v>
       </c>
       <c r="C51">
         <v>1.2500000000000001E-2</v>
       </c>
       <c r="D51">
-        <v>1.487066</v>
+        <v>1.4329860000000001</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -17772,13 +17864,13 @@
         <v>1.53</v>
       </c>
       <c r="B52">
-        <v>73.560699999999997</v>
+        <v>72.8</v>
       </c>
       <c r="C52">
         <v>1.2749999999999999E-2</v>
       </c>
       <c r="D52">
-        <v>1.471214</v>
+        <v>1.456</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -17786,13 +17878,13 @@
         <v>1.56</v>
       </c>
       <c r="B53">
-        <v>73.994399999999999</v>
+        <v>73.974800000000002</v>
       </c>
       <c r="C53">
         <v>1.2999999999999999E-2</v>
       </c>
       <c r="D53">
-        <v>1.4798880000000001</v>
+        <v>1.4794959999999999</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -17800,13 +17892,13 @@
         <v>1.59</v>
       </c>
       <c r="B54">
-        <v>74.8613</v>
+        <v>75.131100000000004</v>
       </c>
       <c r="C54">
         <v>1.325E-2</v>
       </c>
       <c r="D54">
-        <v>1.4972259999999999</v>
+        <v>1.5026219999999999</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -17814,13 +17906,13 @@
         <v>1.62</v>
       </c>
       <c r="B55">
-        <v>75.884699999999995</v>
+        <v>75.078800000000001</v>
       </c>
       <c r="C55">
         <v>1.35E-2</v>
       </c>
       <c r="D55">
-        <v>1.5176940000000001</v>
+        <v>1.501576</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -17828,13 +17920,13 @@
         <v>1.65</v>
       </c>
       <c r="B56">
-        <v>77.0488</v>
+        <v>76.304299999999998</v>
       </c>
       <c r="C56">
         <v>1.375E-2</v>
       </c>
       <c r="D56">
-        <v>1.5409759999999999</v>
+        <v>1.5260860000000001</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -17842,13 +17934,13 @@
         <v>1.68</v>
       </c>
       <c r="B57">
-        <v>78.283199999999994</v>
+        <v>77.553399999999996</v>
       </c>
       <c r="C57">
         <v>1.4E-2</v>
       </c>
       <c r="D57">
-        <v>1.5656639999999999</v>
+        <v>1.5510679999999999</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -17856,13 +17948,13 @@
         <v>1.71</v>
       </c>
       <c r="B58">
-        <v>79.549700000000001</v>
+        <v>78.819000000000003</v>
       </c>
       <c r="C58">
         <v>1.4250000000000001E-2</v>
       </c>
       <c r="D58">
-        <v>1.590994</v>
+        <v>1.5763799999999999</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -17870,13 +17962,13 @@
         <v>1.74</v>
       </c>
       <c r="B59">
-        <v>80.840900000000005</v>
+        <v>80.070499999999996</v>
       </c>
       <c r="C59">
         <v>1.4500000000000001E-2</v>
       </c>
       <c r="D59">
-        <v>1.6168180000000001</v>
+        <v>1.60141</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -17884,13 +17976,13 @@
         <v>1.77</v>
       </c>
       <c r="B60">
-        <v>82.057599999999994</v>
+        <v>81.305000000000007</v>
       </c>
       <c r="C60">
         <v>1.4749999999999999E-2</v>
       </c>
       <c r="D60">
-        <v>1.6411519999999999</v>
+        <v>1.6261000000000001</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -17898,13 +17990,13 @@
         <v>1.8</v>
       </c>
       <c r="B61">
-        <v>82.982500000000002</v>
+        <v>81.361999999999995</v>
       </c>
       <c r="C61">
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="D61">
-        <v>1.6596500000000001</v>
+        <v>1.62724</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -17912,13 +18004,13 @@
         <v>1.83</v>
       </c>
       <c r="B62">
-        <v>84.191699999999997</v>
+        <v>82.406999999999996</v>
       </c>
       <c r="C62">
         <v>1.525E-2</v>
       </c>
       <c r="D62">
-        <v>1.6838340000000001</v>
+        <v>1.6481399999999999</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -17926,13 +18018,13 @@
         <v>1.86</v>
       </c>
       <c r="B63">
-        <v>85.337699999999998</v>
+        <v>83.457300000000004</v>
       </c>
       <c r="C63">
         <v>1.55E-2</v>
       </c>
       <c r="D63">
-        <v>1.7067540000000001</v>
+        <v>1.669146</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -17940,13 +18032,13 @@
         <v>1.89</v>
       </c>
       <c r="B64">
-        <v>86.386600000000001</v>
+        <v>81.612399999999994</v>
       </c>
       <c r="C64">
         <v>1.575E-2</v>
       </c>
       <c r="D64">
-        <v>1.727732</v>
+        <v>1.6322479999999999</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -17954,13 +18046,13 @@
         <v>1.92</v>
       </c>
       <c r="B65">
-        <v>87.473200000000006</v>
+        <v>82.503200000000007</v>
       </c>
       <c r="C65">
         <v>1.6E-2</v>
       </c>
       <c r="D65">
-        <v>1.7494639999999999</v>
+        <v>1.650064</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -17968,13 +18060,13 @@
         <v>1.95</v>
       </c>
       <c r="B66">
-        <v>88.037899999999993</v>
+        <v>83.322199999999995</v>
       </c>
       <c r="C66">
         <v>1.6250000000000001E-2</v>
       </c>
       <c r="D66">
-        <v>1.760758</v>
+        <v>1.666444</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -17982,13 +18074,13 @@
         <v>1.98</v>
       </c>
       <c r="B67">
-        <v>89.070899999999995</v>
+        <v>84.065200000000004</v>
       </c>
       <c r="C67">
         <v>1.6500000000000001E-2</v>
       </c>
       <c r="D67">
-        <v>1.7814179999999999</v>
+        <v>1.6813039999999999</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -17996,13 +18088,13 @@
         <v>2.0099999999999998</v>
       </c>
       <c r="B68">
-        <v>90.176699999999997</v>
+        <v>84.945300000000003</v>
       </c>
       <c r="C68">
         <v>1.6750000000000001E-2</v>
       </c>
       <c r="D68">
-        <v>1.803534</v>
+        <v>1.698906</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -18010,13 +18102,13 @@
         <v>2.04</v>
       </c>
       <c r="B69">
-        <v>91.349100000000007</v>
+        <v>85.9619</v>
       </c>
       <c r="C69">
         <v>1.7000000000000001E-2</v>
       </c>
       <c r="D69">
-        <v>1.8269820000000001</v>
+        <v>1.719238</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -18024,13 +18116,13 @@
         <v>2.0699999999999998</v>
       </c>
       <c r="B70">
-        <v>92.460599999999999</v>
+        <v>87.054900000000004</v>
       </c>
       <c r="C70">
         <v>1.7250000000000001E-2</v>
       </c>
       <c r="D70">
-        <v>1.8492120000000001</v>
+        <v>1.741098</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -18038,13 +18130,13 @@
         <v>2.1</v>
       </c>
       <c r="B71">
-        <v>93.305899999999994</v>
+        <v>88.071200000000005</v>
       </c>
       <c r="C71">
         <v>1.7500000000000002E-2</v>
       </c>
       <c r="D71">
-        <v>1.8661179999999999</v>
+        <v>1.7614240000000001</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -18052,13 +18144,13 @@
         <v>2.13</v>
       </c>
       <c r="B72">
-        <v>94.487799999999993</v>
+        <v>89.078299999999999</v>
       </c>
       <c r="C72">
         <v>1.7749999999999998E-2</v>
       </c>
       <c r="D72">
-        <v>1.889756</v>
+        <v>1.781566</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -18066,13 +18158,13 @@
         <v>2.16</v>
       </c>
       <c r="B73">
-        <v>95.712299999999999</v>
+        <v>90.204400000000007</v>
       </c>
       <c r="C73">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="D73">
-        <v>1.9142459999999999</v>
+        <v>1.8040879999999999</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -18080,13 +18172,13 @@
         <v>2.19</v>
       </c>
       <c r="B74">
-        <v>95.640199999999993</v>
+        <v>91.296800000000005</v>
       </c>
       <c r="C74">
         <v>1.8249999999999999E-2</v>
       </c>
       <c r="D74">
-        <v>1.9128039999999999</v>
+        <v>1.825936</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -18094,13 +18186,13 @@
         <v>2.2200000000000002</v>
       </c>
       <c r="B75">
-        <v>96.690399999999997</v>
+        <v>91.995999999999995</v>
       </c>
       <c r="C75">
         <v>1.8499999999999999E-2</v>
       </c>
       <c r="D75">
-        <v>1.933808</v>
+        <v>1.83992</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -18108,13 +18200,13 @@
         <v>2.25</v>
       </c>
       <c r="B76">
-        <v>97.437200000000004</v>
+        <v>92.986800000000002</v>
       </c>
       <c r="C76">
         <v>1.8749999999999999E-2</v>
       </c>
       <c r="D76">
-        <v>1.948744</v>
+        <v>1.8597360000000001</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -18122,13 +18214,13 @@
         <v>2.2799999999999998</v>
       </c>
       <c r="B77">
-        <v>98.257999999999996</v>
+        <v>93.9816</v>
       </c>
       <c r="C77">
         <v>1.9E-2</v>
       </c>
       <c r="D77">
-        <v>1.96516</v>
+        <v>1.879632</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -18136,13 +18228,13 @@
         <v>2.31</v>
       </c>
       <c r="B78">
-        <v>99.496300000000005</v>
+        <v>95.016999999999996</v>
       </c>
       <c r="C78">
         <v>1.925E-2</v>
       </c>
       <c r="D78">
-        <v>1.9899260000000001</v>
+        <v>1.9003399999999999</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -18150,13 +18242,13 @@
         <v>2.34</v>
       </c>
       <c r="B79">
-        <v>100.11499999999999</v>
+        <v>96.085800000000006</v>
       </c>
       <c r="C79">
         <v>1.95E-2</v>
       </c>
       <c r="D79">
-        <v>2.0023</v>
+        <v>1.921716</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -18164,13 +18256,13 @@
         <v>2.37</v>
       </c>
       <c r="B80">
-        <v>101.30200000000001</v>
+        <v>97.172700000000006</v>
       </c>
       <c r="C80">
         <v>1.975E-2</v>
       </c>
       <c r="D80">
-        <v>2.0260400000000001</v>
+        <v>1.943454</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -18178,13 +18270,13 @@
         <v>2.4</v>
       </c>
       <c r="B81">
-        <v>102.367</v>
+        <v>98.295299999999997</v>
       </c>
       <c r="C81">
         <v>0.02</v>
       </c>
       <c r="D81">
-        <v>2.0473400000000002</v>
+        <v>1.9659059999999999</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -18192,13 +18284,13 @@
         <v>2.4300000000000002</v>
       </c>
       <c r="B82">
-        <v>103.485</v>
+        <v>99.384799999999998</v>
       </c>
       <c r="C82">
         <v>2.0250000000000001E-2</v>
       </c>
       <c r="D82">
-        <v>2.0697000000000001</v>
+        <v>1.9876959999999999</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -18206,13 +18298,13 @@
         <v>2.46</v>
       </c>
       <c r="B83">
-        <v>104.413</v>
+        <v>100.133</v>
       </c>
       <c r="C83">
         <v>2.0500000000000001E-2</v>
       </c>
       <c r="D83">
-        <v>2.08826</v>
+        <v>2.0026600000000001</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -18220,13 +18312,13 @@
         <v>2.4900000000000002</v>
       </c>
       <c r="B84">
-        <v>105.587</v>
+        <v>101.241</v>
       </c>
       <c r="C84">
         <v>2.0750000000000001E-2</v>
       </c>
       <c r="D84">
-        <v>2.1117400000000002</v>
+        <v>2.0248200000000001</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -18234,13 +18326,13 @@
         <v>2.52</v>
       </c>
       <c r="B85">
-        <v>106.76600000000001</v>
+        <v>102.291</v>
       </c>
       <c r="C85">
         <v>2.1000000000000001E-2</v>
       </c>
       <c r="D85">
-        <v>2.1353200000000001</v>
+        <v>2.04582</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -18248,13 +18340,13 @@
         <v>2.5499999999999998</v>
       </c>
       <c r="B86">
-        <v>107.33</v>
+        <v>103.41800000000001</v>
       </c>
       <c r="C86">
         <v>2.1250000000000002E-2</v>
       </c>
       <c r="D86">
-        <v>2.1465999999999998</v>
+        <v>2.0683600000000002</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -18262,13 +18354,13 @@
         <v>2.58</v>
       </c>
       <c r="B87">
-        <v>108.29</v>
+        <v>104.523</v>
       </c>
       <c r="C87">
         <v>2.1499999999999998E-2</v>
       </c>
       <c r="D87">
-        <v>2.1657999999999999</v>
+        <v>2.0904600000000002</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -18276,13 +18368,13 @@
         <v>2.61</v>
       </c>
       <c r="B88">
-        <v>109.471</v>
+        <v>105.608</v>
       </c>
       <c r="C88">
         <v>2.1749999999999999E-2</v>
       </c>
       <c r="D88">
-        <v>2.1894200000000001</v>
+        <v>2.1121599999999998</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -18290,13 +18382,13 @@
         <v>2.64</v>
       </c>
       <c r="B89">
-        <v>110.64700000000001</v>
+        <v>106.71</v>
       </c>
       <c r="C89">
         <v>2.1999999999999999E-2</v>
       </c>
       <c r="D89">
-        <v>2.2129400000000001</v>
+        <v>2.1341999999999999</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -18304,13 +18396,13 @@
         <v>2.67</v>
       </c>
       <c r="B90">
-        <v>111.84699999999999</v>
+        <v>107.849</v>
       </c>
       <c r="C90">
         <v>2.2249999999999999E-2</v>
       </c>
       <c r="D90">
-        <v>2.2369400000000002</v>
+        <v>2.1569799999999999</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -18318,13 +18410,13 @@
         <v>2.7</v>
       </c>
       <c r="B91">
-        <v>113.03100000000001</v>
+        <v>108.90900000000001</v>
       </c>
       <c r="C91">
         <v>2.2499999999999999E-2</v>
       </c>
       <c r="D91">
-        <v>2.2606199999999999</v>
+        <v>2.1781799999999998</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -18332,13 +18424,13 @@
         <v>2.73</v>
       </c>
       <c r="B92">
-        <v>114.20399999999999</v>
+        <v>110.086</v>
       </c>
       <c r="C92">
         <v>2.2749999999999999E-2</v>
       </c>
       <c r="D92">
-        <v>2.2840799999999999</v>
+        <v>2.2017199999999999</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -18346,13 +18438,13 @@
         <v>2.76</v>
       </c>
       <c r="B93">
-        <v>115.303</v>
+        <v>111.21599999999999</v>
       </c>
       <c r="C93">
         <v>2.3E-2</v>
       </c>
       <c r="D93">
-        <v>2.30606</v>
+        <v>2.2243200000000001</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -18360,13 +18452,13 @@
         <v>2.79</v>
       </c>
       <c r="B94">
-        <v>115.983</v>
+        <v>112.27</v>
       </c>
       <c r="C94">
         <v>2.325E-2</v>
       </c>
       <c r="D94">
-        <v>2.3196599999999998</v>
+        <v>2.2454000000000001</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -18374,13 +18466,13 @@
         <v>2.82</v>
       </c>
       <c r="B95">
-        <v>117.15900000000001</v>
+        <v>113.426</v>
       </c>
       <c r="C95">
         <v>2.35E-2</v>
       </c>
       <c r="D95">
-        <v>2.3431799999999998</v>
+        <v>2.2685200000000001</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -18388,13 +18480,13 @@
         <v>2.85</v>
       </c>
       <c r="B96">
-        <v>118.33499999999999</v>
+        <v>114.57299999999999</v>
       </c>
       <c r="C96">
         <v>2.375E-2</v>
       </c>
       <c r="D96">
-        <v>2.3666999999999998</v>
+        <v>2.2914599999999998</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -18402,13 +18494,13 @@
         <v>2.88</v>
       </c>
       <c r="B97">
-        <v>119.40300000000001</v>
+        <v>115.73</v>
       </c>
       <c r="C97">
         <v>2.4E-2</v>
       </c>
       <c r="D97">
-        <v>2.3880599999999998</v>
+        <v>2.3146</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -18416,13 +18508,13 @@
         <v>2.91</v>
       </c>
       <c r="B98">
-        <v>120.548</v>
+        <v>116.908</v>
       </c>
       <c r="C98">
         <v>2.4250000000000001E-2</v>
       </c>
       <c r="D98">
-        <v>2.4109600000000002</v>
+        <v>2.3381599999999998</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -18430,13 +18522,13 @@
         <v>2.94</v>
       </c>
       <c r="B99">
-        <v>121.732</v>
+        <v>118.06699999999999</v>
       </c>
       <c r="C99">
         <v>2.4500000000000001E-2</v>
       </c>
       <c r="D99">
-        <v>2.4346399999999999</v>
+        <v>2.3613400000000002</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -18444,13 +18536,13 @@
         <v>2.97</v>
       </c>
       <c r="B100">
-        <v>122.911</v>
+        <v>118.762</v>
       </c>
       <c r="C100">
         <v>2.4750000000000001E-2</v>
       </c>
       <c r="D100">
-        <v>2.4582199999999998</v>
+        <v>2.3752399999999998</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -18458,13 +18550,13 @@
         <v>2.9849999999999999</v>
       </c>
       <c r="B101">
-        <v>123.51600000000001</v>
+        <v>119.33499999999999</v>
       </c>
       <c r="C101">
         <v>2.4875000000000001E-2</v>
       </c>
       <c r="D101">
-        <v>2.4703200000000001</v>
+        <v>2.3866999999999998</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -18472,13 +18564,13 @@
         <v>2.9925000000000002</v>
       </c>
       <c r="B102">
-        <v>123.803</v>
+        <v>119.6</v>
       </c>
       <c r="C102">
         <v>2.4937500000000001E-2</v>
       </c>
       <c r="D102">
-        <v>2.4760599999999999</v>
+        <v>2.3919999999999999</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -18486,13 +18578,13 @@
         <v>2.9954999999999998</v>
       </c>
       <c r="B103">
-        <v>123.89700000000001</v>
+        <v>119.67100000000001</v>
       </c>
       <c r="C103">
         <v>2.4962499999999999E-2</v>
       </c>
       <c r="D103">
-        <v>2.4779399999999998</v>
+        <v>2.3934199999999999</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -18500,13 +18592,13 @@
         <v>2.9977</v>
       </c>
       <c r="B104">
-        <v>123.889</v>
+        <v>119.495</v>
       </c>
       <c r="C104">
         <v>2.4980833333333341E-2</v>
       </c>
       <c r="D104">
-        <v>2.4777800000000001</v>
+        <v>2.3898999999999999</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -18514,13 +18606,13 @@
         <v>3</v>
       </c>
       <c r="B105">
-        <v>123.867</v>
+        <v>119.455</v>
       </c>
       <c r="C105">
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="D105">
-        <v>2.4773399999999999</v>
+        <v>2.3891</v>
       </c>
     </row>
   </sheetData>
@@ -18528,4 +18620,88 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="20"/>
+  <cols>
+    <col min="1" max="1" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2">
+        <v>17.258420000000001</v>
+      </c>
+      <c r="B2">
+        <v>5900.1538909090896</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3">
+        <v>17.302479999999999</v>
+      </c>
+      <c r="B3">
+        <v>5765.2236606060605</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4">
+        <v>16.901160000000001</v>
+      </c>
+      <c r="B4">
+        <v>5493.0042181818189</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5">
+        <v>16.147179999999999</v>
+      </c>
+      <c r="B5">
+        <v>5211.1029818181814</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6">
+        <v>15.462400000000001</v>
+      </c>
+      <c r="B6">
+        <v>4999.8037333333332</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7">
+        <v>15.62358</v>
+      </c>
+      <c r="B7">
+        <v>4712.7343030303027</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8">
+        <v>15.9533</v>
+      </c>
+      <c r="B8">
+        <v>4505.9669818181819</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>